--- a/src/assets/MyHealthRecords_App.xlsx
+++ b/src/assets/MyHealthRecords_App.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GK-96\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GK-96\Desktop\myhealth____app\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D7D03-8929-4774-B31F-21A39A51DA63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387C5BA-DD8E-4A44-9227-D7B156CE50D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CCBED421-2667-4BAF-8A4C-3918BA6E9EF5}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="General" sheetId="1" r:id="rId1"/>
     <sheet name="SignUp_Login" sheetId="2" r:id="rId2"/>
     <sheet name="Database" sheetId="3" r:id="rId3"/>
+    <sheet name="App Layout" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="120">
   <si>
     <t>Η Eφαρμογή απευθύνεται σε όλους τους πολίτες που μιλάνε Ελληνικά. 
 Μέσα από αυτήν την εφαργμογή οι χρήστες θα μπορούν να κρατάνε ιστορικό των εξετάσεών τους σε μορφή pdf.
@@ -334,12 +335,90 @@
   <si>
     <t>Σε επόμενη φάση το MyPet Records θα χρειαστεί δικό του table στη βάση δεδομένων</t>
   </si>
+  <si>
+    <t>APP LOGO</t>
+  </si>
+  <si>
+    <t>EXIT APP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Φόρμα Αποθήκευσης νέων εξετάσεων σε PDF </t>
+  </si>
+  <si>
+    <t>Ζωτικές λειτουργίες - Μετρήσεις</t>
+  </si>
+  <si>
+    <t>Ιστορικό εξετάσεων - Φίλτρα και αποτελέσματα των PDF</t>
+  </si>
+  <si>
+    <t>Αλλεργίες - Καταχώρηση &amp; Επεξεργασία</t>
+  </si>
+  <si>
+    <t>Ρυθμίσεις Λογαριασμού</t>
+  </si>
+  <si>
+    <t>Εξετάσεις ζώων</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Ζωτικές λειτουργίες - Μετρήσεις Ιστορικό</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/file-medical?style=solid</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/book-medical?style=solid</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/file-medical-alt?style=solid</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/allergies?style=solid</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/paw?style=solid</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/user-cog?style=solid</t>
+  </si>
+  <si>
+    <t>Calendar</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/calendar-alt?style=solid</t>
+  </si>
+  <si>
+    <t>UserModifications</t>
+  </si>
+  <si>
+    <t>Ημερομηνία Τελευταίας αλλαγής προσωπικών στοιχείων χρήστη</t>
+  </si>
+  <si>
+    <t>Ημερομηνία Τελευταίας αλλαγής αλλεργιών χρήστη</t>
+  </si>
+  <si>
+    <t>AllergiesModifications</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/notes-medical?style=solid</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/sign-out-alt?style=solid</t>
+  </si>
+  <si>
+    <t>https://fontawesome.com/v5.15/icons/chart-bar?style=solid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,8 +450,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,8 +503,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -444,91 +544,327 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -847,516 +1183,516 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
     </row>
     <row r="6" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
     </row>
     <row r="7" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
     </row>
     <row r="8" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
     </row>
     <row r="9" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
-      <c r="U9" s="4"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
     </row>
     <row r="10" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
     </row>
     <row r="11" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
     </row>
     <row r="12" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
     </row>
     <row r="13" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
     </row>
     <row r="14" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
     </row>
     <row r="15" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
     </row>
     <row r="16" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
     </row>
     <row r="17" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
-      <c r="U17" s="4"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
     </row>
     <row r="19" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
-      <c r="U19" s="4"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
     </row>
     <row r="20" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
     </row>
     <row r="21" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
     </row>
     <row r="22" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
     </row>
     <row r="23" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
     </row>
     <row r="24" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
     </row>
     <row r="25" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
     </row>
     <row r="26" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
     </row>
     <row r="27" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
     </row>
     <row r="28" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
     </row>
     <row r="29" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
     </row>
     <row r="30" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
     </row>
     <row r="31" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
     </row>
     <row r="32" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
     </row>
     <row r="33" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
-      <c r="U33" s="4"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
     </row>
     <row r="34" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
     </row>
     <row r="35" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
-      <c r="U35" s="4"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
     </row>
     <row r="36" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
     </row>
     <row r="37" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
     </row>
     <row r="38" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-      <c r="O38" s="4"/>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="4"/>
-      <c r="R38" s="4"/>
-      <c r="S38" s="4"/>
-      <c r="T38" s="4"/>
-      <c r="U38" s="4"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1378,11 +1714,11 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J7" s="1"/>
@@ -1394,89 +1730,89 @@
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
+      <c r="K9" s="39"/>
+      <c r="L9" s="39"/>
+      <c r="M9" s="39"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I14" s="1">
         <v>6</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I15" s="1">
         <v>7</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
@@ -1489,34 +1825,34 @@
       <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J20" s="1"/>
@@ -1525,46 +1861,46 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
     </row>
     <row r="22" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="37"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
     </row>
     <row r="23" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="37"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1587,10 +1923,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493A4E62-736F-444D-A608-D31FD3AB804F}">
-  <dimension ref="G2:V49"/>
+  <dimension ref="G2:V51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,44 +1935,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
     </row>
     <row r="5" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="O5" s="6" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="O5" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
     </row>
     <row r="6" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="O6" s="1"/>
@@ -1649,133 +1985,133 @@
       <c r="V6" s="1"/>
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="5">
         <v>1</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="K7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="P7" s="17" t="s">
+      <c r="P7" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
     </row>
     <row r="8" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I8" s="11">
+      <c r="I8" s="4">
         <v>2</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="11" t="s">
+      <c r="K8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="11" t="s">
+      <c r="L8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
     </row>
     <row r="9" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I9" s="11">
+      <c r="I9" s="4">
         <v>3</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="11" t="s">
+      <c r="K9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
     </row>
     <row r="10" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I10" s="11">
+      <c r="I10" s="4">
         <v>4</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
     </row>
     <row r="11" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I11" s="11">
+      <c r="I11" s="4">
         <v>5</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="K11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="L11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
     </row>
     <row r="12" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I12" s="11">
+      <c r="I12" s="4">
         <v>6</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="11" t="s">
+      <c r="K12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L12" s="11" t="s">
+      <c r="L12" s="4" t="s">
         <v>32</v>
       </c>
       <c r="O12" s="1"/>
@@ -1788,16 +2124,16 @@
       <c r="V12" s="1"/>
     </row>
     <row r="13" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I13" s="11">
+      <c r="I13" s="4">
         <v>7</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="K13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L13" s="11" t="s">
+      <c r="L13" s="4" t="s">
         <v>32</v>
       </c>
       <c r="O13" s="1"/>
@@ -1810,108 +2146,114 @@
       <c r="V13" s="1"/>
     </row>
     <row r="14" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I14" s="11">
+      <c r="I14" s="4">
         <v>8</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="K14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O14" s="20" t="s">
+      <c r="O14" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="P14" s="21" t="s">
+      <c r="P14" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="44"/>
+      <c r="S14" s="44"/>
+      <c r="T14" s="44"/>
+      <c r="U14" s="44"/>
+      <c r="V14" s="44"/>
     </row>
     <row r="15" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="H15" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="19">
+      <c r="I15" s="33">
         <v>9</v>
       </c>
-      <c r="J15" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="L15" s="19" t="s">
-        <v>33</v>
+      <c r="J15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-    </row>
-    <row r="16" spans="7:22" x14ac:dyDescent="0.25">
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44"/>
+    </row>
+    <row r="16" spans="7:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
         <v>85</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="4">
         <v>10</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>34</v>
+      <c r="J16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
+      <c r="P16" s="44"/>
+      <c r="Q16" s="44"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="44"/>
     </row>
     <row r="17" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H17" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I17" s="10">
+        <v>11</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>33</v>
+      </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
+      <c r="P17" s="44"/>
+      <c r="Q17" s="44"/>
+      <c r="R17" s="44"/>
+      <c r="S17" s="44"/>
+      <c r="T17" s="44"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="44"/>
     </row>
     <row r="18" spans="8:22" x14ac:dyDescent="0.25">
       <c r="O18" s="1"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
+      <c r="P18" s="44"/>
+      <c r="Q18" s="44"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
     </row>
     <row r="19" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I19" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
@@ -1922,18 +2264,12 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I20" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="L20" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="I20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -1944,134 +2280,134 @@
       <c r="V20" s="1"/>
     </row>
     <row r="21" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I21" s="11">
+      <c r="I21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+    </row>
+    <row r="22" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I22" s="4">
         <v>1</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="J22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="K22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="L21" s="11" t="s">
+      <c r="L22" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O21" s="23" t="s">
+      <c r="O22" s="1"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+    </row>
+    <row r="23" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I23" s="5">
+        <v>2</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="1"/>
+      <c r="P23" s="45"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+    </row>
+    <row r="24" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H24" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="P21" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="24"/>
-    </row>
-    <row r="22" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I22" s="12">
-        <v>2</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="1"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="24"/>
-      <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
-      <c r="U22" s="24"/>
-      <c r="V22" s="24"/>
-    </row>
-    <row r="23" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H23" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="I23" s="22">
+      <c r="I24" s="12">
         <v>3</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J24" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="K23" s="22" t="s">
+      <c r="K24" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="22" t="s">
+      <c r="L24" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="O23" s="1"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="24"/>
-      <c r="R23" s="24"/>
-      <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
-      <c r="U23" s="24"/>
-      <c r="V23" s="24"/>
-    </row>
-    <row r="24" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I24" s="11">
+      <c r="O24" s="1"/>
+      <c r="P24" s="45"/>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+    </row>
+    <row r="25" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I25" s="4">
         <v>4</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J25" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K24" s="11" t="s">
+      <c r="K25" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="L24" s="11" t="s">
+      <c r="L25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="O24" s="1"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="24"/>
-      <c r="R24" s="24"/>
-      <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
-      <c r="U24" s="24"/>
-      <c r="V24" s="24"/>
-    </row>
-    <row r="25" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I25" s="11">
+      <c r="O25" s="1"/>
+      <c r="P25" s="45"/>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+    </row>
+    <row r="26" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I26" s="4">
         <v>5</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J26" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="K26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="L26" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="O25" s="1"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="24"/>
-      <c r="R25" s="24"/>
-      <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
-      <c r="U25" s="24"/>
-      <c r="V25" s="24"/>
-    </row>
-    <row r="26" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I26" s="11">
-        <v>6</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2083,6 +2419,18 @@
       <c r="V26" s="1"/>
     </row>
     <row r="27" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I27" s="4">
+        <v>6</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L27" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -2093,112 +2441,100 @@
       <c r="V27" s="1"/>
     </row>
     <row r="28" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="O28" s="15" t="s">
+      <c r="O28" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="P28" s="18" t="s">
+      <c r="P28" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
     </row>
     <row r="29" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I29" s="10" t="s">
+      <c r="O29" s="1"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
+    </row>
+    <row r="30" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I30" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-    </row>
-    <row r="30" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I30" s="11" t="s">
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
+    </row>
+    <row r="31" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K30" s="11" t="s">
+      <c r="K31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="11" t="s">
+      <c r="L31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O30" s="1"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-    </row>
-    <row r="31" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I31" s="11">
+      <c r="O31" s="1"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
+    </row>
+    <row r="32" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I32" s="4">
         <v>1</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J32" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="K31" s="11" t="s">
+      <c r="K32" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="L31" s="11" t="s">
+      <c r="L32" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O31" s="1"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-    </row>
-    <row r="32" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I32" s="12">
+      <c r="O32" s="1"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
+    </row>
+    <row r="33" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I33" s="5">
         <v>2</v>
       </c>
-      <c r="J32" s="12" t="s">
+      <c r="J33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K33" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="1"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-    </row>
-    <row r="33" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I33" s="11">
-        <v>3</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L33" s="11" t="s">
+      <c r="L33" s="5" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="1"/>
@@ -2211,16 +2547,16 @@
       <c r="V33" s="1"/>
     </row>
     <row r="34" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I34" s="11">
-        <v>4</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="11" t="s">
+      <c r="I34" s="4">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="L34" s="4" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="1"/>
@@ -2233,131 +2569,131 @@
       <c r="V34" s="1"/>
     </row>
     <row r="35" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I35" s="11">
+      <c r="I35" s="4">
+        <v>4</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="14">
+        <v>1</v>
+      </c>
+      <c r="P35" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="40"/>
+      <c r="V35" s="40"/>
+    </row>
+    <row r="36" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I36" s="4">
         <v>5</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="J36" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="K36" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="L35" s="11" t="s">
+      <c r="L36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O35" s="26">
-        <v>1</v>
-      </c>
-      <c r="P35" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="25"/>
-      <c r="S35" s="25"/>
-      <c r="T35" s="25"/>
-      <c r="U35" s="25"/>
-      <c r="V35" s="25"/>
-    </row>
-    <row r="36" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I36" s="11">
+      <c r="O36" s="1"/>
+      <c r="P36" s="40"/>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="40"/>
+      <c r="V36" s="40"/>
+    </row>
+    <row r="37" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I37" s="4">
         <v>6</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J37" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="11" t="s">
+      <c r="K37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="L36" s="11" t="s">
+      <c r="L37" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="25"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="25"/>
-      <c r="S36" s="25"/>
-      <c r="T36" s="25"/>
-      <c r="U36" s="25"/>
-      <c r="V36" s="25"/>
-    </row>
-    <row r="37" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I37" s="11">
+      <c r="O37" s="1"/>
+      <c r="P37" s="40"/>
+      <c r="Q37" s="40"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="40"/>
+      <c r="U37" s="40"/>
+      <c r="V37" s="40"/>
+    </row>
+    <row r="38" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I38" s="4">
         <v>7</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J38" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="K37" s="11" t="s">
+      <c r="K38" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L37" s="11" t="s">
+      <c r="L38" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O37" s="1"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-    </row>
-    <row r="38" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I38" s="11">
+      <c r="O38" s="1"/>
+      <c r="P38" s="40"/>
+      <c r="Q38" s="40"/>
+      <c r="R38" s="40"/>
+      <c r="S38" s="40"/>
+      <c r="T38" s="40"/>
+      <c r="U38" s="40"/>
+      <c r="V38" s="40"/>
+    </row>
+    <row r="39" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I39" s="4">
         <v>8</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J39" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="K38" s="11" t="s">
+      <c r="K39" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="L38" s="11" t="s">
+      <c r="L39" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="O38" s="1"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="25"/>
-      <c r="S38" s="25"/>
-      <c r="T38" s="25"/>
-      <c r="U38" s="25"/>
-      <c r="V38" s="25"/>
-    </row>
-    <row r="39" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I39" s="13">
+      <c r="O39" s="1"/>
+      <c r="P39" s="40"/>
+      <c r="Q39" s="40"/>
+      <c r="R39" s="40"/>
+      <c r="S39" s="40"/>
+      <c r="T39" s="40"/>
+      <c r="U39" s="40"/>
+      <c r="V39" s="40"/>
+    </row>
+    <row r="40" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I40" s="6">
         <v>9</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="K39" s="11" t="s">
+      <c r="K40" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="L39" s="11" t="s">
+      <c r="L40" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="O39" s="1"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="25"/>
-      <c r="S39" s="25"/>
-      <c r="T39" s="25"/>
-      <c r="U39" s="25"/>
-      <c r="V39" s="25"/>
-    </row>
-    <row r="40" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I40" s="11">
-        <v>10</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L40" s="11" t="s">
-        <v>33</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2369,6 +2705,18 @@
       <c r="V40" s="1"/>
     </row>
     <row r="41" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I41" s="4">
+        <v>10</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L41" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
@@ -2379,161 +2727,1246 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="O42" s="26">
+      <c r="O42" s="14">
         <v>2</v>
       </c>
-      <c r="P42" s="25" t="s">
+      <c r="P42" s="40" t="s">
         <v>94</v>
       </c>
-      <c r="Q42" s="25"/>
-      <c r="R42" s="25"/>
-      <c r="S42" s="25"/>
-      <c r="T42" s="25"/>
-      <c r="U42" s="25"/>
-      <c r="V42" s="25"/>
+      <c r="Q42" s="40"/>
+      <c r="R42" s="40"/>
+      <c r="S42" s="40"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="40"/>
+      <c r="V42" s="40"/>
     </row>
     <row r="43" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I43" s="10" t="s">
+      <c r="O43" s="1"/>
+      <c r="P43" s="40"/>
+      <c r="Q43" s="40"/>
+      <c r="R43" s="40"/>
+      <c r="S43" s="40"/>
+      <c r="T43" s="40"/>
+      <c r="U43" s="40"/>
+      <c r="V43" s="40"/>
+    </row>
+    <row r="44" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I44" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="25"/>
-      <c r="R43" s="25"/>
-      <c r="S43" s="25"/>
-      <c r="T43" s="25"/>
-      <c r="U43" s="25"/>
-      <c r="V43" s="25"/>
-    </row>
-    <row r="44" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I44" s="11" t="s">
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="40"/>
+      <c r="Q44" s="40"/>
+      <c r="R44" s="40"/>
+      <c r="S44" s="40"/>
+      <c r="T44" s="40"/>
+      <c r="U44" s="40"/>
+      <c r="V44" s="40"/>
+    </row>
+    <row r="45" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="11" t="s">
+      <c r="J45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="11" t="s">
+      <c r="K45" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="11" t="s">
+      <c r="L45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O44" s="1"/>
-      <c r="P44" s="25"/>
-      <c r="Q44" s="25"/>
-      <c r="R44" s="25"/>
-      <c r="S44" s="25"/>
-      <c r="T44" s="25"/>
-      <c r="U44" s="25"/>
-      <c r="V44" s="25"/>
-    </row>
-    <row r="45" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I45" s="11">
+      <c r="O45" s="1"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+    </row>
+    <row r="46" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I46" s="4">
         <v>1</v>
       </c>
-      <c r="J45" s="11" t="s">
+      <c r="J46" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="K45" s="11" t="s">
+      <c r="K46" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="L45" s="11" t="s">
+      <c r="L46" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O45" s="1"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="25"/>
-      <c r="S45" s="25"/>
-      <c r="T45" s="25"/>
-      <c r="U45" s="25"/>
-      <c r="V45" s="25"/>
-    </row>
-    <row r="46" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I46" s="12">
+      <c r="O46" s="1"/>
+      <c r="P46" s="40"/>
+      <c r="Q46" s="40"/>
+      <c r="R46" s="40"/>
+      <c r="S46" s="40"/>
+      <c r="T46" s="40"/>
+      <c r="U46" s="40"/>
+      <c r="V46" s="40"/>
+    </row>
+    <row r="47" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="I47" s="5">
         <v>2</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="12" t="s">
+      <c r="K47" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="12" t="s">
+      <c r="L47" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="O46" s="1"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-    </row>
-    <row r="47" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="H47" s="15" t="s">
+    </row>
+    <row r="48" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="H48" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I48" s="7">
         <v>3</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J48" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K47" s="14" t="s">
+      <c r="K48" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="L47" s="14" t="s">
+      <c r="L48" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I48" s="13">
+    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I49" s="31">
         <v>4</v>
       </c>
-      <c r="J48" s="11" t="s">
+      <c r="J49" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="K48" s="11" t="s">
+      <c r="K49" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="L48" s="13" t="s">
+      <c r="L49" s="31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I49" s="11">
+    <row r="50" spans="9:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="I50" s="31">
         <v>5</v>
       </c>
-      <c r="J49" s="11" t="s">
+      <c r="J50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K50" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="L50" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="51" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I51" s="4">
+        <v>6</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K49" s="11" t="s">
+      <c r="K51" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="L49" s="11" t="s">
+      <c r="L51" s="4" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="P7:V11"/>
-    <mergeCell ref="P28:V32"/>
-    <mergeCell ref="P14:V18"/>
-    <mergeCell ref="P21:V25"/>
+  <mergeCells count="10">
     <mergeCell ref="O5:V5"/>
     <mergeCell ref="P35:V39"/>
     <mergeCell ref="P42:V46"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="P7:V11"/>
+    <mergeCell ref="P28:V32"/>
+    <mergeCell ref="P14:V18"/>
+    <mergeCell ref="P21:V25"/>
   </mergeCells>
+  <conditionalFormatting sqref="X13 J15:L15">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CFF48-E086-40CD-9240-0256C1A06465}">
+  <dimension ref="D3:U51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="X31" sqref="X31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D3" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="60"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="17"/>
+    </row>
+    <row r="4" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18"/>
+    </row>
+    <row r="5" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="18"/>
+    </row>
+    <row r="6" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="18"/>
+    </row>
+    <row r="7" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="15"/>
+      <c r="S7" s="15"/>
+      <c r="T7" s="15"/>
+      <c r="U7" s="18"/>
+    </row>
+    <row r="8" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D8" s="20"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15"/>
+      <c r="T8" s="15"/>
+      <c r="U8" s="18"/>
+    </row>
+    <row r="9" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D9" s="20"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="15"/>
+      <c r="S9" s="15"/>
+      <c r="T9" s="15"/>
+      <c r="U9" s="18"/>
+    </row>
+    <row r="10" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="66"/>
+      <c r="F10" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="55"/>
+    </row>
+    <row r="11" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="55"/>
+    </row>
+    <row r="12" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D12" s="65"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
+    </row>
+    <row r="13" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D13" s="20"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="15"/>
+      <c r="S13" s="15"/>
+      <c r="T13" s="15"/>
+      <c r="U13" s="18"/>
+    </row>
+    <row r="14" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="66"/>
+      <c r="F14" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="57"/>
+    </row>
+    <row r="15" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D15" s="65"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="57"/>
+    </row>
+    <row r="16" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D16" s="65"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="57"/>
+    </row>
+    <row r="17" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D17" s="20"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="18"/>
+    </row>
+    <row r="18" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="66"/>
+      <c r="F18" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="55"/>
+    </row>
+    <row r="19" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="55"/>
+    </row>
+    <row r="20" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D20" s="65"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="55"/>
+    </row>
+    <row r="21" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D21" s="20"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="18"/>
+    </row>
+    <row r="22" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="66"/>
+      <c r="F22" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="55"/>
+    </row>
+    <row r="23" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
+    </row>
+    <row r="24" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D24" s="65"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="55"/>
+    </row>
+    <row r="25" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D25" s="20"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="18"/>
+    </row>
+    <row r="26" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="66"/>
+      <c r="F26" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="57"/>
+    </row>
+    <row r="27" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="57"/>
+    </row>
+    <row r="28" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="57"/>
+    </row>
+    <row r="29" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D29" s="20"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="18"/>
+    </row>
+    <row r="30" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="66"/>
+      <c r="F30" s="53" t="s">
+        <v>110</v>
+      </c>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="57"/>
+    </row>
+    <row r="31" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D31" s="65"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="57"/>
+    </row>
+    <row r="32" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D32" s="65"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="57"/>
+    </row>
+    <row r="33" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D33" s="20"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="15"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="15"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="15"/>
+      <c r="S33" s="15"/>
+      <c r="T33" s="15"/>
+      <c r="U33" s="18"/>
+    </row>
+    <row r="34" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D34" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="66"/>
+      <c r="F34" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="57"/>
+    </row>
+    <row r="35" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D35" s="65"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="57"/>
+    </row>
+    <row r="36" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D36" s="65"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="57"/>
+    </row>
+    <row r="37" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D37" s="23"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="18"/>
+    </row>
+    <row r="38" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D38" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E38" s="66"/>
+      <c r="F38" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="47"/>
+      <c r="H38" s="47"/>
+      <c r="I38" s="47"/>
+      <c r="J38" s="47"/>
+      <c r="K38" s="47"/>
+      <c r="L38" s="47"/>
+      <c r="M38" s="47"/>
+      <c r="N38" s="47"/>
+      <c r="O38" s="47"/>
+      <c r="P38" s="47"/>
+      <c r="Q38" s="47"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="47"/>
+      <c r="T38" s="47"/>
+      <c r="U38" s="48"/>
+    </row>
+    <row r="39" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="49"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="47"/>
+      <c r="I39" s="47"/>
+      <c r="J39" s="47"/>
+      <c r="K39" s="47"/>
+      <c r="L39" s="47"/>
+      <c r="M39" s="47"/>
+      <c r="N39" s="47"/>
+      <c r="O39" s="47"/>
+      <c r="P39" s="47"/>
+      <c r="Q39" s="47"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="47"/>
+      <c r="T39" s="47"/>
+      <c r="U39" s="48"/>
+    </row>
+    <row r="40" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="49"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+      <c r="I40" s="47"/>
+      <c r="J40" s="47"/>
+      <c r="K40" s="47"/>
+      <c r="L40" s="47"/>
+      <c r="M40" s="47"/>
+      <c r="N40" s="47"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="47"/>
+      <c r="Q40" s="47"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="47"/>
+      <c r="T40" s="47"/>
+      <c r="U40" s="48"/>
+    </row>
+    <row r="41" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D41" s="23"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="25"/>
+      <c r="S41" s="25"/>
+      <c r="T41" s="25"/>
+      <c r="U41" s="26"/>
+    </row>
+    <row r="42" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D42" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="E42" s="66"/>
+      <c r="F42" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="57"/>
+    </row>
+    <row r="43" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="57"/>
+    </row>
+    <row r="44" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="57"/>
+    </row>
+    <row r="45" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D45" s="23"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15"/>
+      <c r="K45" s="15"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="15"/>
+      <c r="T45" s="15"/>
+      <c r="U45" s="18"/>
+    </row>
+    <row r="46" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D46" s="23"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="15"/>
+      <c r="T46" s="15"/>
+      <c r="U46" s="18"/>
+    </row>
+    <row r="47" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D47" s="23"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="15"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="18"/>
+    </row>
+    <row r="48" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D48" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E48" s="60"/>
+      <c r="F48" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="47"/>
+      <c r="H48" s="47"/>
+      <c r="I48" s="47"/>
+      <c r="J48" s="47"/>
+      <c r="K48" s="47"/>
+      <c r="L48" s="47"/>
+      <c r="M48" s="47"/>
+      <c r="N48" s="47"/>
+      <c r="O48" s="47"/>
+      <c r="P48" s="47"/>
+      <c r="Q48" s="47"/>
+      <c r="R48" s="47"/>
+      <c r="S48" s="47"/>
+      <c r="T48" s="47"/>
+      <c r="U48" s="48"/>
+    </row>
+    <row r="49" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D49" s="61"/>
+      <c r="E49" s="62"/>
+      <c r="F49" s="49"/>
+      <c r="G49" s="47"/>
+      <c r="H49" s="47"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="47"/>
+      <c r="K49" s="47"/>
+      <c r="L49" s="47"/>
+      <c r="M49" s="47"/>
+      <c r="N49" s="47"/>
+      <c r="O49" s="47"/>
+      <c r="P49" s="47"/>
+      <c r="Q49" s="47"/>
+      <c r="R49" s="47"/>
+      <c r="S49" s="47"/>
+      <c r="T49" s="47"/>
+      <c r="U49" s="48"/>
+    </row>
+    <row r="50" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D50" s="61"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="49"/>
+      <c r="G50" s="47"/>
+      <c r="H50" s="47"/>
+      <c r="I50" s="47"/>
+      <c r="J50" s="47"/>
+      <c r="K50" s="47"/>
+      <c r="L50" s="47"/>
+      <c r="M50" s="47"/>
+      <c r="N50" s="47"/>
+      <c r="O50" s="47"/>
+      <c r="P50" s="47"/>
+      <c r="Q50" s="47"/>
+      <c r="R50" s="47"/>
+      <c r="S50" s="47"/>
+      <c r="T50" s="47"/>
+      <c r="U50" s="48"/>
+    </row>
+    <row r="51" spans="4:21" x14ac:dyDescent="0.25">
+      <c r="D51" s="63"/>
+      <c r="E51" s="64"/>
+      <c r="F51" s="50"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="D22:E24"/>
+    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="D48:E51"/>
+    <mergeCell ref="D42:E44"/>
+    <mergeCell ref="D38:E40"/>
+    <mergeCell ref="D14:E16"/>
+    <mergeCell ref="F34:U36"/>
+    <mergeCell ref="F42:U44"/>
+    <mergeCell ref="F38:U40"/>
+    <mergeCell ref="D30:E32"/>
+    <mergeCell ref="D34:E36"/>
+    <mergeCell ref="F48:U51"/>
+    <mergeCell ref="F22:U24"/>
+    <mergeCell ref="F18:U20"/>
+    <mergeCell ref="F10:U12"/>
+    <mergeCell ref="F26:U28"/>
+    <mergeCell ref="F30:U32"/>
+    <mergeCell ref="F14:U16"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F18" r:id="rId1" xr:uid="{36619635-C56A-4186-9BF4-E751CB45AE65}"/>
+    <hyperlink ref="F22" r:id="rId2" xr:uid="{0F092EC7-7F37-4F74-BA00-407F92B1FDC5}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{2F34FB0F-D59C-4331-9A3E-1D2919959338}"/>
+    <hyperlink ref="F26" r:id="rId4" xr:uid="{D98A63A3-2EF7-41A8-B046-528B527BC32B}"/>
+    <hyperlink ref="F42" r:id="rId5" xr:uid="{6350EA7A-A2FF-4DB6-8123-B18125FDAEFB}"/>
+    <hyperlink ref="F30" r:id="rId6" xr:uid="{061E0469-4986-40E7-BEBE-90B942C140DF}"/>
+    <hyperlink ref="F38" r:id="rId7" xr:uid="{C5100098-C8CE-49B4-A41A-13F8A3B732F2}"/>
+    <hyperlink ref="F14" r:id="rId8" xr:uid="{D4D25ABC-5E75-443C-9CC9-10B7A3E3A04F}"/>
+    <hyperlink ref="F48" r:id="rId9" xr:uid="{45AE9D62-056C-431B-A59A-32D76B1B3D10}"/>
+    <hyperlink ref="F34" r:id="rId10" xr:uid="{F7B8E736-0859-42B3-AA03-F5D65DE9EAB8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
+</worksheet>
 </file>
--- a/src/assets/MyHealthRecords_App.xlsx
+++ b/src/assets/MyHealthRecords_App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GK-96\Desktop\myhealth____app\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C387C5BA-DD8E-4A44-9227-D7B156CE50D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B443B2-521A-4F26-A56B-47FAC49FA468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CCBED421-2667-4BAF-8A4C-3918BA6E9EF5}"/>
+    <workbookView xWindow="-33017" yWindow="-4277" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{CCBED421-2667-4BAF-8A4C-3918BA6E9EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -784,6 +784,42 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -805,47 +841,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1925,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493A4E62-736F-444D-A608-D31FD3AB804F}">
   <dimension ref="G2:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -2917,10 +2917,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="60"/>
+      <c r="E3" s="47"/>
       <c r="F3" s="19"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -2939,8 +2939,8 @@
       <c r="U3" s="17"/>
     </row>
     <row r="4" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="21"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2959,8 +2959,8 @@
       <c r="U4" s="18"/>
     </row>
     <row r="5" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="21"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2979,8 +2979,8 @@
       <c r="U5" s="18"/>
     </row>
     <row r="6" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
       <c r="F6" s="21"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2999,8 +2999,8 @@
       <c r="U6" s="18"/>
     </row>
     <row r="7" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
       <c r="F7" s="21"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -3059,68 +3059,68 @@
       <c r="U9" s="18"/>
     </row>
     <row r="10" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="65" t="s">
+      <c r="D10" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="66"/>
-      <c r="F10" s="53" t="s">
+      <c r="E10" s="51"/>
+      <c r="F10" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="55"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="66"/>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="65"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="55"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="66"/>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="65"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="55"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="65"/>
+      <c r="U12" s="66"/>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="20"/>
@@ -3143,68 +3143,68 @@
       <c r="U13" s="18"/>
     </row>
     <row r="14" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="65" t="s">
+      <c r="D14" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="E14" s="66"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="51"/>
+      <c r="F14" s="54" t="s">
         <v>117</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="57"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="56"/>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="65"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="57"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="56"/>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="65"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="57"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="56"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="20"/>
@@ -3227,68 +3227,68 @@
       <c r="U17" s="18"/>
     </row>
     <row r="18" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="65" t="s">
+      <c r="D18" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="66"/>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="51"/>
+      <c r="F18" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="55"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65"/>
+      <c r="N18" s="65"/>
+      <c r="O18" s="65"/>
+      <c r="P18" s="65"/>
+      <c r="Q18" s="65"/>
+      <c r="R18" s="65"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="66"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="65"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="55"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="65"/>
+      <c r="O19" s="65"/>
+      <c r="P19" s="65"/>
+      <c r="Q19" s="65"/>
+      <c r="R19" s="65"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="66"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="65"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="55"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="65"/>
+      <c r="L20" s="65"/>
+      <c r="M20" s="65"/>
+      <c r="N20" s="65"/>
+      <c r="O20" s="65"/>
+      <c r="P20" s="65"/>
+      <c r="Q20" s="65"/>
+      <c r="R20" s="65"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="66"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="20"/>
@@ -3311,68 +3311,68 @@
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="65" t="s">
+      <c r="D22" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="E22" s="66"/>
-      <c r="F22" s="53" t="s">
+      <c r="E22" s="51"/>
+      <c r="F22" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="55"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
+      <c r="M22" s="65"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="66"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="65"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="65"/>
+      <c r="P23" s="65"/>
+      <c r="Q23" s="65"/>
+      <c r="R23" s="65"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="66"/>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="65"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="55"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="65"/>
+      <c r="K24" s="65"/>
+      <c r="L24" s="65"/>
+      <c r="M24" s="65"/>
+      <c r="N24" s="65"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="66"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="20"/>
@@ -3395,68 +3395,68 @@
       <c r="U25" s="18"/>
     </row>
     <row r="26" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="65" t="s">
+      <c r="D26" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="E26" s="66"/>
-      <c r="F26" s="53" t="s">
+      <c r="E26" s="51"/>
+      <c r="F26" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="57"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="56"/>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="57"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="56"/>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="65"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="57"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="56"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="20"/>
@@ -3479,68 +3479,68 @@
       <c r="U29" s="18"/>
     </row>
     <row r="30" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="65" t="s">
+      <c r="D30" s="50" t="s">
         <v>101</v>
       </c>
-      <c r="E30" s="66"/>
-      <c r="F30" s="53" t="s">
+      <c r="E30" s="51"/>
+      <c r="F30" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="57"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="56"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="65"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="57"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="56"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="65"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="57"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="56"/>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="20"/>
@@ -3563,68 +3563,68 @@
       <c r="U33" s="18"/>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="65" t="s">
+      <c r="D34" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="66"/>
-      <c r="F34" s="53" t="s">
+      <c r="E34" s="51"/>
+      <c r="F34" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="57"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="56"/>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D35" s="65"/>
-      <c r="E35" s="66"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="57"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="56"/>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D36" s="65"/>
-      <c r="E36" s="66"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="57"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="56"/>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="23"/>
@@ -3647,68 +3647,68 @@
       <c r="U37" s="18"/>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D38" s="65" t="s">
+      <c r="D38" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="66"/>
-      <c r="F38" s="46" t="s">
+      <c r="E38" s="51"/>
+      <c r="F38" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="47"/>
-      <c r="K38" s="47"/>
-      <c r="L38" s="47"/>
-      <c r="M38" s="47"/>
-      <c r="N38" s="47"/>
-      <c r="O38" s="47"/>
-      <c r="P38" s="47"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="47"/>
-      <c r="S38" s="47"/>
-      <c r="T38" s="47"/>
-      <c r="U38" s="48"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
+      <c r="L38" s="59"/>
+      <c r="M38" s="59"/>
+      <c r="N38" s="59"/>
+      <c r="O38" s="59"/>
+      <c r="P38" s="59"/>
+      <c r="Q38" s="59"/>
+      <c r="R38" s="59"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="60"/>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D39" s="65"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="47"/>
-      <c r="K39" s="47"/>
-      <c r="L39" s="47"/>
-      <c r="M39" s="47"/>
-      <c r="N39" s="47"/>
-      <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
-      <c r="R39" s="47"/>
-      <c r="S39" s="47"/>
-      <c r="T39" s="47"/>
-      <c r="U39" s="48"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="61"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="59"/>
+      <c r="J39" s="59"/>
+      <c r="K39" s="59"/>
+      <c r="L39" s="59"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="59"/>
+      <c r="R39" s="59"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="60"/>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D40" s="65"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="47"/>
-      <c r="H40" s="47"/>
-      <c r="I40" s="47"/>
-      <c r="J40" s="47"/>
-      <c r="K40" s="47"/>
-      <c r="L40" s="47"/>
-      <c r="M40" s="47"/>
-      <c r="N40" s="47"/>
-      <c r="O40" s="47"/>
-      <c r="P40" s="47"/>
-      <c r="Q40" s="47"/>
-      <c r="R40" s="47"/>
-      <c r="S40" s="47"/>
-      <c r="T40" s="47"/>
-      <c r="U40" s="48"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="61"/>
+      <c r="G40" s="59"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="59"/>
+      <c r="J40" s="59"/>
+      <c r="K40" s="59"/>
+      <c r="L40" s="59"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="59"/>
+      <c r="R40" s="59"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="60"/>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="23"/>
@@ -3731,68 +3731,68 @@
       <c r="U41" s="26"/>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D42" s="65" t="s">
+      <c r="D42" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="66"/>
-      <c r="F42" s="53" t="s">
+      <c r="E42" s="51"/>
+      <c r="F42" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="57"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="56"/>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D43" s="65"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="57"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="56"/>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="57"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="56"/>
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="23"/>
@@ -3847,96 +3847,95 @@
       <c r="U47" s="18"/>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D48" s="59" t="s">
+      <c r="D48" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="60"/>
-      <c r="F48" s="46" t="s">
+      <c r="E48" s="47"/>
+      <c r="F48" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="G48" s="47"/>
-      <c r="H48" s="47"/>
-      <c r="I48" s="47"/>
-      <c r="J48" s="47"/>
-      <c r="K48" s="47"/>
-      <c r="L48" s="47"/>
-      <c r="M48" s="47"/>
-      <c r="N48" s="47"/>
-      <c r="O48" s="47"/>
-      <c r="P48" s="47"/>
-      <c r="Q48" s="47"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="48"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="59"/>
+      <c r="J48" s="59"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="59"/>
+      <c r="N48" s="59"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
+      <c r="Q48" s="59"/>
+      <c r="R48" s="59"/>
+      <c r="S48" s="59"/>
+      <c r="T48" s="59"/>
+      <c r="U48" s="60"/>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D49" s="61"/>
-      <c r="E49" s="62"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="47"/>
-      <c r="H49" s="47"/>
-      <c r="I49" s="47"/>
-      <c r="J49" s="47"/>
-      <c r="K49" s="47"/>
-      <c r="L49" s="47"/>
-      <c r="M49" s="47"/>
-      <c r="N49" s="47"/>
-      <c r="O49" s="47"/>
-      <c r="P49" s="47"/>
-      <c r="Q49" s="47"/>
-      <c r="R49" s="47"/>
-      <c r="S49" s="47"/>
-      <c r="T49" s="47"/>
-      <c r="U49" s="48"/>
+      <c r="D49" s="48"/>
+      <c r="E49" s="49"/>
+      <c r="F49" s="61"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="59"/>
+      <c r="J49" s="59"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="59"/>
+      <c r="N49" s="59"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
+      <c r="Q49" s="59"/>
+      <c r="R49" s="59"/>
+      <c r="S49" s="59"/>
+      <c r="T49" s="59"/>
+      <c r="U49" s="60"/>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D50" s="61"/>
-      <c r="E50" s="62"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47"/>
-      <c r="K50" s="47"/>
-      <c r="L50" s="47"/>
-      <c r="M50" s="47"/>
-      <c r="N50" s="47"/>
-      <c r="O50" s="47"/>
-      <c r="P50" s="47"/>
-      <c r="Q50" s="47"/>
-      <c r="R50" s="47"/>
-      <c r="S50" s="47"/>
-      <c r="T50" s="47"/>
-      <c r="U50" s="48"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="49"/>
+      <c r="F50" s="61"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="59"/>
+      <c r="J50" s="59"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="59"/>
+      <c r="N50" s="59"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
+      <c r="Q50" s="59"/>
+      <c r="R50" s="59"/>
+      <c r="S50" s="59"/>
+      <c r="T50" s="59"/>
+      <c r="U50" s="60"/>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D51" s="63"/>
-      <c r="E51" s="64"/>
-      <c r="F51" s="50"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="51"/>
-      <c r="I51" s="51"/>
-      <c r="J51" s="51"/>
-      <c r="K51" s="51"/>
-      <c r="L51" s="51"/>
-      <c r="M51" s="51"/>
-      <c r="N51" s="51"/>
-      <c r="O51" s="51"/>
-      <c r="P51" s="51"/>
-      <c r="Q51" s="51"/>
-      <c r="R51" s="51"/>
-      <c r="S51" s="51"/>
-      <c r="T51" s="51"/>
-      <c r="U51" s="52"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+      <c r="P51" s="63"/>
+      <c r="Q51" s="63"/>
+      <c r="R51" s="63"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="D10:E12"/>
-    <mergeCell ref="D18:E20"/>
-    <mergeCell ref="D22:E24"/>
-    <mergeCell ref="D26:E28"/>
+    <mergeCell ref="F10:U12"/>
+    <mergeCell ref="F26:U28"/>
+    <mergeCell ref="F30:U32"/>
+    <mergeCell ref="F14:U16"/>
     <mergeCell ref="D48:E51"/>
     <mergeCell ref="D42:E44"/>
     <mergeCell ref="D38:E40"/>
@@ -3949,10 +3948,11 @@
     <mergeCell ref="F48:U51"/>
     <mergeCell ref="F22:U24"/>
     <mergeCell ref="F18:U20"/>
-    <mergeCell ref="F10:U12"/>
-    <mergeCell ref="F26:U28"/>
-    <mergeCell ref="F30:U32"/>
-    <mergeCell ref="F14:U16"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="D22:E24"/>
+    <mergeCell ref="D26:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F18" r:id="rId1" xr:uid="{36619635-C56A-4186-9BF4-E751CB45AE65}"/>

--- a/src/assets/MyHealthRecords_App.xlsx
+++ b/src/assets/MyHealthRecords_App.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GK-96\Desktop\myhealth____app\src\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GK-96\Desktop\MyHealthRecords.gr_App\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B443B2-521A-4F26-A56B-47FAC49FA468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A4D795-DD37-4661-B0FB-837F72F7D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33017" yWindow="-4277" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{CCBED421-2667-4BAF-8A4C-3918BA6E9EF5}"/>
   </bookViews>
@@ -246,9 +246,6 @@
     <t>float</t>
   </si>
   <si>
-    <t>float (%)</t>
-  </si>
-  <si>
     <t>VitalsSystolic</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t>https://fontawesome.com/v5.15/icons/chart-bar?style=solid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">float </t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,7 @@
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -748,6 +748,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -784,6 +787,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -796,30 +817,18 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -839,12 +848,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1183,516 +1186,516 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="5" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I5" s="34" t="s">
+      <c r="I5" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
     </row>
     <row r="6" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
     </row>
     <row r="7" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
     </row>
     <row r="8" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="36"/>
+      <c r="O8" s="36"/>
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="36"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="36"/>
+      <c r="U8" s="36"/>
     </row>
     <row r="9" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="36"/>
+      <c r="O9" s="36"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="36"/>
+      <c r="T9" s="36"/>
+      <c r="U9" s="36"/>
     </row>
     <row r="10" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="36"/>
+      <c r="O10" s="36"/>
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="36"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="36"/>
+      <c r="U10" s="36"/>
     </row>
     <row r="11" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
     </row>
     <row r="12" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="36"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="36"/>
+      <c r="U12" s="36"/>
     </row>
     <row r="13" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
     </row>
     <row r="14" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
+      <c r="N14" s="36"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="36"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="36"/>
+      <c r="U14" s="36"/>
     </row>
     <row r="15" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
     </row>
     <row r="16" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
     </row>
     <row r="17" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
     </row>
     <row r="18" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="36"/>
     </row>
     <row r="19" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="36"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="36"/>
+      <c r="U19" s="36"/>
     </row>
     <row r="20" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="36"/>
     </row>
     <row r="21" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="36"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="36"/>
+      <c r="U21" s="36"/>
     </row>
     <row r="22" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="36"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+      <c r="Q22" s="36"/>
+      <c r="R22" s="36"/>
+      <c r="S22" s="36"/>
+      <c r="T22" s="36"/>
+      <c r="U22" s="36"/>
     </row>
     <row r="23" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="36"/>
+      <c r="O23" s="36"/>
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="36"/>
+      <c r="U23" s="36"/>
     </row>
     <row r="24" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="36"/>
+      <c r="S24" s="36"/>
+      <c r="T24" s="36"/>
+      <c r="U24" s="36"/>
     </row>
     <row r="25" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="36"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="36"/>
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="36"/>
+      <c r="U25" s="36"/>
     </row>
     <row r="26" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="36"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="36"/>
+      <c r="Q26" s="36"/>
+      <c r="R26" s="36"/>
+      <c r="S26" s="36"/>
+      <c r="T26" s="36"/>
+      <c r="U26" s="36"/>
     </row>
     <row r="27" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="36"/>
+      <c r="S27" s="36"/>
+      <c r="T27" s="36"/>
+      <c r="U27" s="36"/>
     </row>
     <row r="28" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="36"/>
+      <c r="M28" s="36"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="36"/>
+      <c r="S28" s="36"/>
+      <c r="T28" s="36"/>
+      <c r="U28" s="36"/>
     </row>
     <row r="29" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="36"/>
+      <c r="U29" s="36"/>
     </row>
     <row r="30" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="36"/>
+      <c r="Q30" s="36"/>
+      <c r="R30" s="36"/>
+      <c r="S30" s="36"/>
+      <c r="T30" s="36"/>
+      <c r="U30" s="36"/>
     </row>
     <row r="31" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="36"/>
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="36"/>
+      <c r="U31" s="36"/>
     </row>
     <row r="32" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="36"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="36"/>
+      <c r="Q32" s="36"/>
+      <c r="R32" s="36"/>
+      <c r="S32" s="36"/>
+      <c r="T32" s="36"/>
+      <c r="U32" s="36"/>
     </row>
     <row r="33" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="36"/>
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="36"/>
+      <c r="U33" s="36"/>
     </row>
     <row r="34" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="36"/>
+      <c r="M34" s="36"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="36"/>
+      <c r="Q34" s="36"/>
+      <c r="R34" s="36"/>
+      <c r="S34" s="36"/>
+      <c r="T34" s="36"/>
+      <c r="U34" s="36"/>
     </row>
     <row r="35" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="36"/>
+      <c r="M35" s="36"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="36"/>
+      <c r="Q35" s="36"/>
+      <c r="R35" s="36"/>
+      <c r="S35" s="36"/>
+      <c r="T35" s="36"/>
+      <c r="U35" s="36"/>
     </row>
     <row r="36" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="36"/>
+      <c r="Q36" s="36"/>
+      <c r="R36" s="36"/>
+      <c r="S36" s="36"/>
+      <c r="T36" s="36"/>
+      <c r="U36" s="36"/>
     </row>
     <row r="37" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="36"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="36"/>
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="36"/>
+      <c r="U37" s="36"/>
     </row>
     <row r="38" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1730,89 +1733,89 @@
       <c r="I8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="38" t="s">
+      <c r="J8" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I9" s="1">
         <v>1</v>
       </c>
-      <c r="J9" s="39" t="s">
+      <c r="J9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="39"/>
-      <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="40"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I10" s="1">
         <v>2</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="K10" s="39"/>
-      <c r="L10" s="39"/>
-      <c r="M10" s="39"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I11" s="1">
         <v>3</v>
       </c>
-      <c r="J11" s="39" t="s">
+      <c r="J11" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
+      <c r="M11" s="40"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I12" s="1">
         <v>4</v>
       </c>
-      <c r="J12" s="36" t="s">
+      <c r="J12" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I13" s="1">
         <v>5</v>
       </c>
-      <c r="J13" s="36" t="s">
+      <c r="J13" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I14" s="1">
         <v>6</v>
       </c>
-      <c r="J14" s="36" t="s">
+      <c r="J14" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36"/>
-      <c r="M14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I15" s="1">
         <v>7</v>
       </c>
-      <c r="J15" s="36" t="s">
+      <c r="J15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I16" s="1"/>
@@ -1825,34 +1828,34 @@
       <c r="I17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
     </row>
     <row r="18" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I18" s="1">
         <v>1</v>
       </c>
-      <c r="J18" s="36" t="s">
+      <c r="J18" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I19" s="1">
         <v>2</v>
       </c>
-      <c r="J19" s="36" t="s">
+      <c r="J19" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
     </row>
     <row r="20" spans="9:14" x14ac:dyDescent="0.25">
       <c r="J20" s="1"/>
@@ -1861,46 +1864,46 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="J21" s="38"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
     </row>
     <row r="22" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
     </row>
     <row r="23" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
     </row>
     <row r="24" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
     </row>
     <row r="25" spans="9:14" x14ac:dyDescent="0.25">
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1925,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493A4E62-736F-444D-A608-D31FD3AB804F}">
   <dimension ref="G2:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1935,32 +1938,32 @@
   </cols>
   <sheetData>
     <row r="2" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
     </row>
     <row r="5" spans="7:22" x14ac:dyDescent="0.25">
-      <c r="I5" s="41" t="s">
+      <c r="I5" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="O5" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="O5" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
     </row>
     <row r="6" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I6" s="4" t="s">
@@ -1986,7 +1989,7 @@
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.25">
       <c r="H7" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -2001,17 +2004,17 @@
         <v>19</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="P7" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="42"/>
+        <v>82</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43"/>
     </row>
     <row r="8" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I8" s="4">
@@ -2027,13 +2030,13 @@
         <v>21</v>
       </c>
       <c r="O8" s="1"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
+      <c r="V8" s="43"/>
     </row>
     <row r="9" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I9" s="4">
@@ -2049,13 +2052,13 @@
         <v>21</v>
       </c>
       <c r="O9" s="1"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
-      <c r="R9" s="42"/>
-      <c r="S9" s="42"/>
-      <c r="T9" s="42"/>
-      <c r="U9" s="42"/>
-      <c r="V9" s="42"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
     </row>
     <row r="10" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I10" s="4">
@@ -2071,13 +2074,13 @@
         <v>21</v>
       </c>
       <c r="O10" s="1"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43"/>
     </row>
     <row r="11" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I11" s="4">
@@ -2093,13 +2096,13 @@
         <v>21</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="42"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
     </row>
     <row r="12" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I12" s="4">
@@ -2159,17 +2162,17 @@
         <v>32</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="44" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
-      <c r="V14" s="44"/>
+        <v>83</v>
+      </c>
+      <c r="P14" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
     </row>
     <row r="15" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I15" s="33">
@@ -2185,42 +2188,42 @@
         <v>34</v>
       </c>
       <c r="O15" s="1"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="44"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
     </row>
     <row r="16" spans="7:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="4">
         <v>10</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="K16" s="32" t="s">
         <v>113</v>
-      </c>
-      <c r="K16" s="32" t="s">
-        <v>114</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="O16" s="1"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
-      <c r="U16" s="44"/>
-      <c r="V16" s="44"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
     </row>
     <row r="17" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H17" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I17" s="10">
         <v>11</v>
@@ -2235,23 +2238,23 @@
         <v>33</v>
       </c>
       <c r="O17" s="1"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
+      <c r="P17" s="45"/>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
     </row>
     <row r="18" spans="8:22" x14ac:dyDescent="0.25">
       <c r="O18" s="1"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
     </row>
     <row r="19" spans="8:22" x14ac:dyDescent="0.25">
       <c r="O19" s="1"/>
@@ -2264,12 +2267,12 @@
       <c r="V19" s="1"/>
     </row>
     <row r="20" spans="8:22" x14ac:dyDescent="0.25">
-      <c r="I20" s="41" t="s">
+      <c r="I20" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
@@ -2293,17 +2296,17 @@
         <v>15</v>
       </c>
       <c r="O21" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="P21" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="45"/>
-      <c r="T21" s="45"/>
-      <c r="U21" s="45"/>
-      <c r="V21" s="45"/>
+        <v>89</v>
+      </c>
+      <c r="P21" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="46"/>
     </row>
     <row r="22" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I22" s="4">
@@ -2319,13 +2322,13 @@
         <v>19</v>
       </c>
       <c r="O22" s="1"/>
-      <c r="P22" s="45"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="45"/>
-      <c r="S22" s="45"/>
-      <c r="T22" s="45"/>
-      <c r="U22" s="45"/>
-      <c r="V22" s="45"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="46"/>
     </row>
     <row r="23" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I23" s="5">
@@ -2341,17 +2344,17 @@
         <v>32</v>
       </c>
       <c r="O23" s="1"/>
-      <c r="P23" s="45"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="45"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="T23" s="46"/>
+      <c r="U23" s="46"/>
+      <c r="V23" s="46"/>
     </row>
     <row r="24" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H24" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I24" s="12">
         <v>3</v>
@@ -2366,13 +2369,13 @@
         <v>51</v>
       </c>
       <c r="O24" s="1"/>
-      <c r="P24" s="45"/>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="45"/>
-      <c r="S24" s="45"/>
-      <c r="T24" s="45"/>
-      <c r="U24" s="45"/>
-      <c r="V24" s="45"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="46"/>
+      <c r="V24" s="46"/>
     </row>
     <row r="25" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I25" s="4">
@@ -2388,13 +2391,13 @@
         <v>50</v>
       </c>
       <c r="O25" s="1"/>
-      <c r="P25" s="45"/>
-      <c r="Q25" s="45"/>
-      <c r="R25" s="45"/>
-      <c r="S25" s="45"/>
-      <c r="T25" s="45"/>
-      <c r="U25" s="45"/>
-      <c r="V25" s="45"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="46"/>
     </row>
     <row r="26" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I26" s="4">
@@ -2442,27 +2445,27 @@
     </row>
     <row r="28" spans="8:22" x14ac:dyDescent="0.25">
       <c r="O28" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="P28" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="Q28" s="43"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
+      <c r="P28" s="44" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q28" s="44"/>
+      <c r="R28" s="44"/>
+      <c r="S28" s="44"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="44"/>
+      <c r="V28" s="44"/>
     </row>
     <row r="29" spans="8:22" x14ac:dyDescent="0.25">
       <c r="O29" s="1"/>
-      <c r="P29" s="43"/>
-      <c r="Q29" s="43"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+      <c r="U29" s="44"/>
+      <c r="V29" s="44"/>
     </row>
     <row r="30" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I30" s="28" t="s">
@@ -2472,13 +2475,13 @@
       <c r="K30" s="29"/>
       <c r="L30" s="30"/>
       <c r="O30" s="1"/>
-      <c r="P30" s="43"/>
-      <c r="Q30" s="43"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="44"/>
+      <c r="S30" s="44"/>
+      <c r="T30" s="44"/>
+      <c r="U30" s="44"/>
+      <c r="V30" s="44"/>
     </row>
     <row r="31" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I31" s="4" t="s">
@@ -2494,13 +2497,13 @@
         <v>15</v>
       </c>
       <c r="O31" s="1"/>
-      <c r="P31" s="43"/>
-      <c r="Q31" s="43"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
+      <c r="P31" s="44"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="44"/>
+      <c r="S31" s="44"/>
+      <c r="T31" s="44"/>
+      <c r="U31" s="44"/>
+      <c r="V31" s="44"/>
     </row>
     <row r="32" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I32" s="4">
@@ -2516,13 +2519,13 @@
         <v>19</v>
       </c>
       <c r="O32" s="1"/>
-      <c r="P32" s="43"/>
-      <c r="Q32" s="43"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="44"/>
+      <c r="S32" s="44"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="44"/>
+      <c r="V32" s="44"/>
     </row>
     <row r="33" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I33" s="5">
@@ -2551,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34" s="4" t="s">
         <v>57</v>
@@ -2573,7 +2576,7 @@
         <v>4</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35" s="4" t="s">
         <v>58</v>
@@ -2584,22 +2587,22 @@
       <c r="O35" s="14">
         <v>1</v>
       </c>
-      <c r="P35" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
-      <c r="S35" s="40"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="40"/>
-      <c r="V35" s="40"/>
+      <c r="P35" s="41" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
     </row>
     <row r="36" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I36" s="4">
         <v>5</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36" s="4" t="s">
         <v>59</v>
@@ -2608,20 +2611,20 @@
         <v>32</v>
       </c>
       <c r="O36" s="1"/>
-      <c r="P36" s="40"/>
-      <c r="Q36" s="40"/>
-      <c r="R36" s="40"/>
-      <c r="S36" s="40"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="40"/>
-      <c r="V36" s="40"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
     </row>
     <row r="37" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I37" s="4">
         <v>6</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>60</v>
@@ -2630,67 +2633,67 @@
         <v>64</v>
       </c>
       <c r="O37" s="1"/>
-      <c r="P37" s="40"/>
-      <c r="Q37" s="40"/>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
-      <c r="T37" s="40"/>
-      <c r="U37" s="40"/>
-      <c r="V37" s="40"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
     </row>
     <row r="38" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I38" s="4">
         <v>7</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>62</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="O38" s="1"/>
-      <c r="P38" s="40"/>
-      <c r="Q38" s="40"/>
-      <c r="R38" s="40"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="40"/>
-      <c r="U38" s="40"/>
-      <c r="V38" s="40"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
     </row>
     <row r="39" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I39" s="4">
         <v>8</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>61</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="O39" s="1"/>
-      <c r="P39" s="40"/>
-      <c r="Q39" s="40"/>
-      <c r="R39" s="40"/>
-      <c r="S39" s="40"/>
-      <c r="T39" s="40"/>
-      <c r="U39" s="40"/>
-      <c r="V39" s="40"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
     </row>
     <row r="40" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I40" s="6">
         <v>9</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>77</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>78</v>
       </c>
       <c r="L40" s="4" t="s">
         <v>21</v>
@@ -2709,7 +2712,7 @@
         <v>10</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K41" s="4" t="s">
         <v>63</v>
@@ -2727,44 +2730,45 @@
       <c r="V41" s="1"/>
     </row>
     <row r="42" spans="8:22" x14ac:dyDescent="0.25">
+      <c r="L42" s="34"/>
       <c r="O42" s="14">
         <v>2</v>
       </c>
-      <c r="P42" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q42" s="40"/>
-      <c r="R42" s="40"/>
-      <c r="S42" s="40"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="40"/>
-      <c r="V42" s="40"/>
+      <c r="P42" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
     </row>
     <row r="43" spans="8:22" x14ac:dyDescent="0.25">
       <c r="O43" s="1"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
-      <c r="S43" s="40"/>
-      <c r="T43" s="40"/>
-      <c r="U43" s="40"/>
-      <c r="V43" s="40"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
     </row>
     <row r="44" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I44" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
       <c r="L44" s="30"/>
       <c r="O44" s="1"/>
-      <c r="P44" s="40"/>
-      <c r="Q44" s="40"/>
-      <c r="R44" s="40"/>
-      <c r="S44" s="40"/>
-      <c r="T44" s="40"/>
-      <c r="U44" s="40"/>
-      <c r="V44" s="40"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
     </row>
     <row r="45" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I45" s="4" t="s">
@@ -2780,35 +2784,35 @@
         <v>15</v>
       </c>
       <c r="O45" s="1"/>
-      <c r="P45" s="40"/>
-      <c r="Q45" s="40"/>
-      <c r="R45" s="40"/>
-      <c r="S45" s="40"/>
-      <c r="T45" s="40"/>
-      <c r="U45" s="40"/>
-      <c r="V45" s="40"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
     </row>
     <row r="46" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I46" s="4">
         <v>1</v>
       </c>
       <c r="J46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>74</v>
-      </c>
-      <c r="K46" s="4" t="s">
-        <v>75</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O46" s="1"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
-      <c r="S46" s="40"/>
-      <c r="T46" s="40"/>
-      <c r="U46" s="40"/>
-      <c r="V46" s="40"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
     </row>
     <row r="47" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I47" s="5">
@@ -2826,16 +2830,16 @@
     </row>
     <row r="48" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H48" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I48" s="7">
         <v>3</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>21</v>
@@ -2846,10 +2850,10 @@
         <v>4</v>
       </c>
       <c r="J49" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="K49" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="L49" s="31" t="s">
         <v>21</v>
@@ -2860,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L50" s="4" t="s">
         <v>33</v>
@@ -2874,7 +2878,7 @@
         <v>6</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>63</v>
@@ -2907,7 +2911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CFF48-E086-40CD-9240-0256C1A06465}">
   <dimension ref="D3:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="X31" sqref="X31"/>
     </sheetView>
   </sheetViews>
@@ -2917,10 +2921,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D3" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="E3" s="47"/>
+      <c r="D3" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="E3" s="54"/>
       <c r="F3" s="19"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -2939,8 +2943,8 @@
       <c r="U3" s="17"/>
     </row>
     <row r="4" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="21"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2959,8 +2963,8 @@
       <c r="U4" s="18"/>
     </row>
     <row r="5" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="21"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2979,8 +2983,8 @@
       <c r="U5" s="18"/>
     </row>
     <row r="6" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="21"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -2999,8 +3003,8 @@
       <c r="U6" s="18"/>
     </row>
     <row r="7" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="21"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -3059,68 +3063,68 @@
       <c r="U9" s="18"/>
     </row>
     <row r="10" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="50" t="s">
-        <v>98</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="65"/>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="66"/>
+      <c r="D10" s="59" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="60"/>
+      <c r="F10" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="49"/>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="66"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="49"/>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="65"/>
-      <c r="K12" s="65"/>
-      <c r="L12" s="65"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="65"/>
-      <c r="O12" s="65"/>
-      <c r="P12" s="65"/>
-      <c r="Q12" s="65"/>
-      <c r="R12" s="65"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="65"/>
-      <c r="U12" s="66"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49"/>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="20"/>
@@ -3143,68 +3147,68 @@
       <c r="U13" s="18"/>
     </row>
     <row r="14" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E14" s="51"/>
-      <c r="F14" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="56"/>
+      <c r="D14" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="47" t="s">
+        <v>116</v>
+      </c>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="51"/>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="56"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51"/>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="56"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="51"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="20"/>
@@ -3227,68 +3231,68 @@
       <c r="U17" s="18"/>
     </row>
     <row r="18" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="50" t="s">
-        <v>97</v>
-      </c>
-      <c r="E18" s="51"/>
-      <c r="F18" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="65"/>
-      <c r="H18" s="65"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="65"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="65"/>
-      <c r="M18" s="65"/>
-      <c r="N18" s="65"/>
-      <c r="O18" s="65"/>
-      <c r="P18" s="65"/>
-      <c r="Q18" s="65"/>
-      <c r="R18" s="65"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="66"/>
+      <c r="D18" s="59" t="s">
+        <v>96</v>
+      </c>
+      <c r="E18" s="60"/>
+      <c r="F18" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="65"/>
-      <c r="L19" s="65"/>
-      <c r="M19" s="65"/>
-      <c r="N19" s="65"/>
-      <c r="O19" s="65"/>
-      <c r="P19" s="65"/>
-      <c r="Q19" s="65"/>
-      <c r="R19" s="65"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="66"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="65"/>
-      <c r="L20" s="65"/>
-      <c r="M20" s="65"/>
-      <c r="N20" s="65"/>
-      <c r="O20" s="65"/>
-      <c r="P20" s="65"/>
-      <c r="Q20" s="65"/>
-      <c r="R20" s="65"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="66"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="49"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="20"/>
@@ -3311,68 +3315,68 @@
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="50" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="51"/>
-      <c r="F22" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="66"/>
+      <c r="D22" s="59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="60"/>
+      <c r="F22" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="49"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="50"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="65"/>
-      <c r="K23" s="65"/>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="65"/>
-      <c r="P23" s="65"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="65"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="66"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="49"/>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="50"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="65"/>
-      <c r="K24" s="65"/>
-      <c r="L24" s="65"/>
-      <c r="M24" s="65"/>
-      <c r="N24" s="65"/>
-      <c r="O24" s="65"/>
-      <c r="P24" s="65"/>
-      <c r="Q24" s="65"/>
-      <c r="R24" s="65"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="66"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="20"/>
@@ -3395,68 +3399,68 @@
       <c r="U25" s="18"/>
     </row>
     <row r="26" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="50" t="s">
-        <v>100</v>
-      </c>
-      <c r="E26" s="51"/>
-      <c r="F26" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="56"/>
+      <c r="D26" s="59" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="60"/>
+      <c r="F26" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="51"/>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D27" s="50"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="56"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="51"/>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="50"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="56"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="51"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="20"/>
@@ -3479,68 +3483,68 @@
       <c r="U29" s="18"/>
     </row>
     <row r="30" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="50" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="51"/>
-      <c r="F30" s="54" t="s">
-        <v>110</v>
-      </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="56"/>
+      <c r="D30" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="60"/>
+      <c r="F30" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="51"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="50"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="56"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="51"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="50"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="56"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="51"/>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="20"/>
@@ -3563,68 +3567,68 @@
       <c r="U33" s="18"/>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="50" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="51"/>
-      <c r="F34" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="56"/>
+      <c r="D34" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="60"/>
+      <c r="F34" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="51"/>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D35" s="50"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="56"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="51"/>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D36" s="50"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="56"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="51"/>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="23"/>
@@ -3647,68 +3651,68 @@
       <c r="U37" s="18"/>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="59" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="51"/>
-      <c r="F38" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="59"/>
-      <c r="O38" s="59"/>
-      <c r="P38" s="59"/>
-      <c r="Q38" s="59"/>
-      <c r="R38" s="59"/>
-      <c r="S38" s="59"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="60"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62"/>
+      <c r="N38" s="62"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="63"/>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D39" s="50"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="61"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="59"/>
-      <c r="J39" s="59"/>
-      <c r="K39" s="59"/>
-      <c r="L39" s="59"/>
-      <c r="M39" s="59"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="59"/>
-      <c r="R39" s="59"/>
-      <c r="S39" s="59"/>
-      <c r="T39" s="59"/>
-      <c r="U39" s="60"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="64"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="62"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="63"/>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D40" s="50"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="61"/>
-      <c r="G40" s="59"/>
-      <c r="H40" s="59"/>
-      <c r="I40" s="59"/>
-      <c r="J40" s="59"/>
-      <c r="K40" s="59"/>
-      <c r="L40" s="59"/>
-      <c r="M40" s="59"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="59"/>
-      <c r="R40" s="59"/>
-      <c r="S40" s="59"/>
-      <c r="T40" s="59"/>
-      <c r="U40" s="60"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="64"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62"/>
+      <c r="N40" s="62"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="63"/>
     </row>
     <row r="41" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D41" s="23"/>
@@ -3731,68 +3735,68 @@
       <c r="U41" s="26"/>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D42" s="50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="51"/>
-      <c r="F42" s="54" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="56"/>
+      <c r="D42" s="59" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="60"/>
+      <c r="F42" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="51"/>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D43" s="50"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="56"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="51"/>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D44" s="50"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="56"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="51"/>
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="23"/>
@@ -3847,91 +3851,96 @@
       <c r="U47" s="18"/>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D48" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="E48" s="47"/>
-      <c r="F48" s="58" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" s="59"/>
-      <c r="H48" s="59"/>
-      <c r="I48" s="59"/>
-      <c r="J48" s="59"/>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="59"/>
-      <c r="N48" s="59"/>
-      <c r="O48" s="59"/>
-      <c r="P48" s="59"/>
-      <c r="Q48" s="59"/>
-      <c r="R48" s="59"/>
-      <c r="S48" s="59"/>
-      <c r="T48" s="59"/>
-      <c r="U48" s="60"/>
+      <c r="D48" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="E48" s="54"/>
+      <c r="F48" s="61" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="62"/>
+      <c r="N48" s="62"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="63"/>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D49" s="48"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="61"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="59"/>
-      <c r="I49" s="59"/>
-      <c r="J49" s="59"/>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="59"/>
-      <c r="N49" s="59"/>
-      <c r="O49" s="59"/>
-      <c r="P49" s="59"/>
-      <c r="Q49" s="59"/>
-      <c r="R49" s="59"/>
-      <c r="S49" s="59"/>
-      <c r="T49" s="59"/>
-      <c r="U49" s="60"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="62"/>
+      <c r="N49" s="62"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="63"/>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D50" s="48"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="61"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="59"/>
-      <c r="I50" s="59"/>
-      <c r="J50" s="59"/>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="59"/>
-      <c r="N50" s="59"/>
-      <c r="O50" s="59"/>
-      <c r="P50" s="59"/>
-      <c r="Q50" s="59"/>
-      <c r="R50" s="59"/>
-      <c r="S50" s="59"/>
-      <c r="T50" s="59"/>
-      <c r="U50" s="60"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="64"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="62"/>
+      <c r="N50" s="62"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="63"/>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D51" s="52"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="63"/>
-      <c r="T51" s="63"/>
-      <c r="U51" s="64"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="65"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="66"/>
+      <c r="I51" s="66"/>
+      <c r="J51" s="66"/>
+      <c r="K51" s="66"/>
+      <c r="L51" s="66"/>
+      <c r="M51" s="66"/>
+      <c r="N51" s="66"/>
+      <c r="O51" s="66"/>
+      <c r="P51" s="66"/>
+      <c r="Q51" s="66"/>
+      <c r="R51" s="66"/>
+      <c r="S51" s="66"/>
+      <c r="T51" s="66"/>
+      <c r="U51" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="D22:E24"/>
+    <mergeCell ref="D26:E28"/>
     <mergeCell ref="F10:U12"/>
     <mergeCell ref="F26:U28"/>
     <mergeCell ref="F30:U32"/>
@@ -3948,11 +3957,6 @@
     <mergeCell ref="F48:U51"/>
     <mergeCell ref="F22:U24"/>
     <mergeCell ref="F18:U20"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="D10:E12"/>
-    <mergeCell ref="D18:E20"/>
-    <mergeCell ref="D22:E24"/>
-    <mergeCell ref="D26:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F18" r:id="rId1" xr:uid="{36619635-C56A-4186-9BF4-E751CB45AE65}"/>

--- a/src/assets/MyHealthRecords_App.xlsx
+++ b/src/assets/MyHealthRecords_App.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GK-96\Desktop\MyHealthRecords.gr_App\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A4D795-DD37-4661-B0FB-837F72F7D939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B934E339-FC9D-443D-89DD-A9E6A98D1211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33017" yWindow="-4277" windowWidth="33120" windowHeight="18120" activeTab="2" xr2:uid="{CCBED421-2667-4BAF-8A4C-3918BA6E9EF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CCBED421-2667-4BAF-8A4C-3918BA6E9EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -84,9 +84,6 @@
     <t>Σε επόμενο στάδιο της εφαρμογής θα χρειάζεται επιβεβαίωση του λογαριασμού μέσα σε 15 μέρες. Υπό διαφορετικές συνθήκες η πρόσβαση στο λογαριασμό δε θα είναι δυνατή</t>
   </si>
   <si>
-    <t>Στην εφαρμογή θα γίνει χρήση σχεσιακής βάσης δεδομένων</t>
-  </si>
-  <si>
     <t>α/α</t>
   </si>
   <si>
@@ -409,6 +406,9 @@
   </si>
   <si>
     <t xml:space="preserve">float </t>
+  </si>
+  <si>
+    <t>Στην εφαρμογή θα γίνει χρήση μη σχεσιακής βάσης δεδομένων</t>
   </si>
 </sst>
 </file>
@@ -787,6 +787,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -805,29 +823,11 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1731,7 +1731,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="I8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>1</v>
@@ -1826,7 +1826,7 @@
     </row>
     <row r="17" spans="9:14" x14ac:dyDescent="0.25">
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>2</v>
@@ -1929,7 +1929,7 @@
   <dimension ref="G2:V51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,7 +1939,7 @@
   <sheetData>
     <row r="2" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I2" s="39" t="s">
-        <v>11</v>
+        <v>119</v>
       </c>
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
@@ -1949,13 +1949,13 @@
     </row>
     <row r="5" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I5" s="42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42"/>
       <c r="O5" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="P5" s="39"/>
       <c r="Q5" s="39"/>
@@ -1967,16 +1967,16 @@
     </row>
     <row r="6" spans="7:22" x14ac:dyDescent="0.25">
       <c r="I6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="K6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="L6" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
@@ -1989,25 +1989,25 @@
     </row>
     <row r="7" spans="7:22" x14ac:dyDescent="0.25">
       <c r="H7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="O7" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P7" s="43" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q7" s="43"/>
       <c r="R7" s="43"/>
@@ -2021,13 +2021,13 @@
         <v>2</v>
       </c>
       <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="43"/>
@@ -2043,13 +2043,13 @@
         <v>3</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="43"/>
@@ -2065,13 +2065,13 @@
         <v>4</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="43"/>
@@ -2087,13 +2087,13 @@
         <v>5</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O11" s="1"/>
       <c r="P11" s="43"/>
@@ -2109,13 +2109,13 @@
         <v>6</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K12" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1"/>
@@ -2131,13 +2131,13 @@
         <v>7</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
@@ -2153,19 +2153,19 @@
         <v>8</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O14" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="P14" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
@@ -2179,13 +2179,13 @@
         <v>9</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="45"/>
@@ -2198,19 +2198,19 @@
     </row>
     <row r="16" spans="7:22" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I16" s="4">
         <v>10</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="32" t="s">
-        <v>113</v>
-      </c>
       <c r="L16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="45"/>
@@ -2223,19 +2223,19 @@
     </row>
     <row r="17" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H17" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="10">
         <v>11</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="45"/>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="20" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I20" s="42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
@@ -2284,22 +2284,22 @@
     </row>
     <row r="21" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="4" t="s">
+      <c r="L21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="4" t="s">
-        <v>15</v>
-      </c>
       <c r="O21" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P21" s="46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q21" s="46"/>
       <c r="R21" s="46"/>
@@ -2313,13 +2313,13 @@
         <v>1</v>
       </c>
       <c r="J22" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="L22" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="46"/>
@@ -2335,13 +2335,13 @@
         <v>2</v>
       </c>
       <c r="J23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K23" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="L23" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="46"/>
@@ -2354,19 +2354,19 @@
     </row>
     <row r="24" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H24" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I24" s="12">
         <v>3</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L24" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="46"/>
@@ -2382,13 +2382,13 @@
         <v>4</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K25" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="46"/>
@@ -2404,13 +2404,13 @@
         <v>5</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K26" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -2426,13 +2426,13 @@
         <v>6</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -2445,10 +2445,10 @@
     </row>
     <row r="28" spans="8:22" x14ac:dyDescent="0.25">
       <c r="O28" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P28" s="44" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q28" s="44"/>
       <c r="R28" s="44"/>
@@ -2469,7 +2469,7 @@
     </row>
     <row r="30" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I30" s="28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J30" s="29"/>
       <c r="K30" s="29"/>
@@ -2485,16 +2485,16 @@
     </row>
     <row r="31" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="K31" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="L31" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="44"/>
@@ -2510,13 +2510,13 @@
         <v>1</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="44"/>
@@ -2532,13 +2532,13 @@
         <v>2</v>
       </c>
       <c r="J33" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="L33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -2554,13 +2554,13 @@
         <v>3</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1"/>
@@ -2576,19 +2576,19 @@
         <v>4</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K35" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O35" s="14">
         <v>1</v>
       </c>
       <c r="P35" s="41" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q35" s="41"/>
       <c r="R35" s="41"/>
@@ -2602,13 +2602,13 @@
         <v>5</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K36" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="41"/>
@@ -2624,13 +2624,13 @@
         <v>6</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="41"/>
@@ -2646,13 +2646,13 @@
         <v>7</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K38" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="41"/>
@@ -2668,13 +2668,13 @@
         <v>8</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K39" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="41"/>
@@ -2690,13 +2690,13 @@
         <v>9</v>
       </c>
       <c r="J40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="K40" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="L40" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
@@ -2712,13 +2712,13 @@
         <v>10</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
@@ -2735,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="P42" s="41" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q42" s="41"/>
       <c r="R42" s="41"/>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="44" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I44" s="28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J44" s="29"/>
       <c r="K44" s="29"/>
@@ -2772,16 +2772,16 @@
     </row>
     <row r="45" spans="8:22" x14ac:dyDescent="0.25">
       <c r="I45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J45" s="4" t="s">
+      <c r="K45" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K45" s="4" t="s">
+      <c r="L45" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="O45" s="1"/>
       <c r="P45" s="41"/>
@@ -2797,13 +2797,13 @@
         <v>1</v>
       </c>
       <c r="J46" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="K46" s="4" t="s">
-        <v>74</v>
-      </c>
       <c r="L46" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O46" s="1"/>
       <c r="P46" s="41"/>
@@ -2819,30 +2819,30 @@
         <v>2</v>
       </c>
       <c r="J47" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="L47" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="8:22" x14ac:dyDescent="0.25">
       <c r="H48" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I48" s="7">
         <v>3</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="9:12" x14ac:dyDescent="0.25">
@@ -2850,13 +2850,13 @@
         <v>4</v>
       </c>
       <c r="J49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K49" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="K49" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="L49" s="31" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="9:12" ht="30" x14ac:dyDescent="0.25">
@@ -2864,13 +2864,13 @@
         <v>5</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K50" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="9:12" x14ac:dyDescent="0.25">
@@ -2878,13 +2878,13 @@
         <v>6</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K51" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2911,8 +2911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{288CFF48-E086-40CD-9240-0256C1A06465}">
   <dimension ref="D3:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="X31" sqref="X31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,10 +2921,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D3" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="54"/>
+      <c r="D3" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="48"/>
       <c r="F3" s="19"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -2943,8 +2943,8 @@
       <c r="U3" s="17"/>
     </row>
     <row r="4" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="21"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2963,8 +2963,8 @@
       <c r="U4" s="18"/>
     </row>
     <row r="5" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="21"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2983,8 +2983,8 @@
       <c r="U5" s="18"/>
     </row>
     <row r="6" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D6" s="55"/>
-      <c r="E6" s="56"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="21"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -3003,8 +3003,8 @@
       <c r="U6" s="18"/>
     </row>
     <row r="7" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="55"/>
-      <c r="E7" s="56"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="21"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -3063,68 +3063,68 @@
       <c r="U9" s="18"/>
     </row>
     <row r="10" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="49"/>
+      <c r="D10" s="51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="53" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="55"/>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="59"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="49"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="55"/>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="59"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="49"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="55"/>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="20"/>
@@ -3147,68 +3147,68 @@
       <c r="U13" s="18"/>
     </row>
     <row r="14" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="59" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="50"/>
-      <c r="L14" s="50"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="50"/>
-      <c r="O14" s="50"/>
-      <c r="P14" s="50"/>
-      <c r="Q14" s="50"/>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="51"/>
+      <c r="D14" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" s="52"/>
+      <c r="F14" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="56"/>
+      <c r="M14" s="56"/>
+      <c r="N14" s="56"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="57"/>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="59"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="50"/>
-      <c r="L15" s="50"/>
-      <c r="M15" s="50"/>
-      <c r="N15" s="50"/>
-      <c r="O15" s="50"/>
-      <c r="P15" s="50"/>
-      <c r="Q15" s="50"/>
-      <c r="R15" s="50"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="56"/>
+      <c r="S15" s="56"/>
+      <c r="T15" s="56"/>
+      <c r="U15" s="57"/>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="50"/>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="50"/>
-      <c r="L16" s="50"/>
-      <c r="M16" s="50"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="50"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="58"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="57"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="20"/>
@@ -3231,68 +3231,68 @@
       <c r="U17" s="18"/>
     </row>
     <row r="18" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="59" t="s">
-        <v>96</v>
-      </c>
-      <c r="E18" s="60"/>
-      <c r="F18" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="48"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
-      <c r="S18" s="48"/>
-      <c r="T18" s="48"/>
-      <c r="U18" s="49"/>
+      <c r="D18" s="51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="52"/>
+      <c r="F18" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="55"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="49"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="55"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="59"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="49"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="54"/>
+      <c r="U20" s="55"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="20"/>
@@ -3315,68 +3315,68 @@
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="60"/>
-      <c r="F22" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="G22" s="48"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="49"/>
+      <c r="D22" s="51" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
+      <c r="S22" s="54"/>
+      <c r="T22" s="54"/>
+      <c r="U22" s="55"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="59"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="49"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="54"/>
+      <c r="S23" s="54"/>
+      <c r="T23" s="54"/>
+      <c r="U23" s="55"/>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="59"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="48"/>
-      <c r="P24" s="48"/>
-      <c r="Q24" s="48"/>
-      <c r="R24" s="48"/>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="49"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="54"/>
+      <c r="R24" s="54"/>
+      <c r="S24" s="54"/>
+      <c r="T24" s="54"/>
+      <c r="U24" s="55"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="20"/>
@@ -3399,68 +3399,68 @@
       <c r="U25" s="18"/>
     </row>
     <row r="26" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="60"/>
-      <c r="F26" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="50"/>
-      <c r="N26" s="50"/>
-      <c r="O26" s="50"/>
-      <c r="P26" s="50"/>
-      <c r="Q26" s="50"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="51"/>
+      <c r="D26" s="51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="52"/>
+      <c r="F26" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+      <c r="K26" s="56"/>
+      <c r="L26" s="56"/>
+      <c r="M26" s="56"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="56"/>
+      <c r="P26" s="56"/>
+      <c r="Q26" s="56"/>
+      <c r="R26" s="56"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="56"/>
+      <c r="U26" s="57"/>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D27" s="59"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="50"/>
-      <c r="N27" s="50"/>
-      <c r="O27" s="50"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+      <c r="K27" s="56"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="56"/>
+      <c r="N27" s="56"/>
+      <c r="O27" s="56"/>
+      <c r="P27" s="56"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="57"/>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="59"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="50"/>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="50"/>
-      <c r="M28" s="50"/>
-      <c r="N28" s="50"/>
-      <c r="O28" s="50"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="56"/>
+      <c r="M28" s="56"/>
+      <c r="N28" s="56"/>
+      <c r="O28" s="56"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="57"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="20"/>
@@ -3483,68 +3483,68 @@
       <c r="U29" s="18"/>
     </row>
     <row r="30" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="59" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="51"/>
+      <c r="D30" s="51" t="s">
+        <v>99</v>
+      </c>
+      <c r="E30" s="52"/>
+      <c r="F30" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+      <c r="K30" s="56"/>
+      <c r="L30" s="56"/>
+      <c r="M30" s="56"/>
+      <c r="N30" s="56"/>
+      <c r="O30" s="56"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="56"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="56"/>
+      <c r="U30" s="57"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="59"/>
-      <c r="E31" s="60"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="50"/>
-      <c r="O31" s="50"/>
-      <c r="P31" s="50"/>
-      <c r="Q31" s="50"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="56"/>
+      <c r="M31" s="56"/>
+      <c r="N31" s="56"/>
+      <c r="O31" s="56"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="56"/>
+      <c r="R31" s="56"/>
+      <c r="S31" s="56"/>
+      <c r="T31" s="56"/>
+      <c r="U31" s="57"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="59"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="52"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="50"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="50"/>
-      <c r="O32" s="50"/>
-      <c r="P32" s="50"/>
-      <c r="Q32" s="50"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="58"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+      <c r="K32" s="56"/>
+      <c r="L32" s="56"/>
+      <c r="M32" s="56"/>
+      <c r="N32" s="56"/>
+      <c r="O32" s="56"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="56"/>
+      <c r="R32" s="56"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="56"/>
+      <c r="U32" s="57"/>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="20"/>
@@ -3567,68 +3567,68 @@
       <c r="U33" s="18"/>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="50"/>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50"/>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="51"/>
+      <c r="D34" s="51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" s="52"/>
+      <c r="F34" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="57"/>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D35" s="59"/>
-      <c r="E35" s="60"/>
-      <c r="F35" s="52"/>
-      <c r="G35" s="50"/>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="50"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="50"/>
-      <c r="O35" s="50"/>
-      <c r="P35" s="50"/>
-      <c r="Q35" s="50"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
+      <c r="J35" s="56"/>
+      <c r="K35" s="56"/>
+      <c r="L35" s="56"/>
+      <c r="M35" s="56"/>
+      <c r="N35" s="56"/>
+      <c r="O35" s="56"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="56"/>
+      <c r="R35" s="56"/>
+      <c r="S35" s="56"/>
+      <c r="T35" s="56"/>
+      <c r="U35" s="57"/>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D36" s="59"/>
-      <c r="E36" s="60"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="50"/>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
-      <c r="K36" s="50"/>
-      <c r="L36" s="50"/>
-      <c r="M36" s="50"/>
-      <c r="N36" s="50"/>
-      <c r="O36" s="50"/>
-      <c r="P36" s="50"/>
-      <c r="Q36" s="50"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="56"/>
+      <c r="K36" s="56"/>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56"/>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="57"/>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="23"/>
@@ -3651,12 +3651,12 @@
       <c r="U37" s="18"/>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D38" s="59" t="s">
+      <c r="D38" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="52"/>
+      <c r="F38" s="61" t="s">
         <v>110</v>
-      </c>
-      <c r="E38" s="60"/>
-      <c r="F38" s="61" t="s">
-        <v>111</v>
       </c>
       <c r="G38" s="62"/>
       <c r="H38" s="62"/>
@@ -3675,8 +3675,8 @@
       <c r="U38" s="63"/>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D39" s="59"/>
-      <c r="E39" s="60"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="52"/>
       <c r="F39" s="64"/>
       <c r="G39" s="62"/>
       <c r="H39" s="62"/>
@@ -3695,8 +3695,8 @@
       <c r="U39" s="63"/>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D40" s="59"/>
-      <c r="E40" s="60"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="52"/>
       <c r="F40" s="64"/>
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
@@ -3735,68 +3735,68 @@
       <c r="U41" s="26"/>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D42" s="59" t="s">
-        <v>101</v>
-      </c>
-      <c r="E42" s="60"/>
-      <c r="F42" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="G42" s="50"/>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="50"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50"/>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="51"/>
+      <c r="D42" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42" s="52"/>
+      <c r="F42" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+      <c r="I42" s="56"/>
+      <c r="J42" s="56"/>
+      <c r="K42" s="56"/>
+      <c r="L42" s="56"/>
+      <c r="M42" s="56"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="56"/>
+      <c r="T42" s="56"/>
+      <c r="U42" s="57"/>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D43" s="59"/>
-      <c r="E43" s="60"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="50"/>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="50"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="50"/>
-      <c r="O43" s="50"/>
-      <c r="P43" s="50"/>
-      <c r="Q43" s="50"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="56"/>
+      <c r="J43" s="56"/>
+      <c r="K43" s="56"/>
+      <c r="L43" s="56"/>
+      <c r="M43" s="56"/>
+      <c r="N43" s="56"/>
+      <c r="O43" s="56"/>
+      <c r="P43" s="56"/>
+      <c r="Q43" s="56"/>
+      <c r="R43" s="56"/>
+      <c r="S43" s="56"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="57"/>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D44" s="59"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
-      <c r="K44" s="50"/>
-      <c r="L44" s="50"/>
-      <c r="M44" s="50"/>
-      <c r="N44" s="50"/>
-      <c r="O44" s="50"/>
-      <c r="P44" s="50"/>
-      <c r="Q44" s="50"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="51"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="58"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+      <c r="I44" s="56"/>
+      <c r="J44" s="56"/>
+      <c r="K44" s="56"/>
+      <c r="L44" s="56"/>
+      <c r="M44" s="56"/>
+      <c r="N44" s="56"/>
+      <c r="O44" s="56"/>
+      <c r="P44" s="56"/>
+      <c r="Q44" s="56"/>
+      <c r="R44" s="56"/>
+      <c r="S44" s="56"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="57"/>
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="23"/>
@@ -3851,12 +3851,12 @@
       <c r="U47" s="18"/>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D48" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E48" s="54"/>
+      <c r="D48" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="48"/>
       <c r="F48" s="61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G48" s="62"/>
       <c r="H48" s="62"/>
@@ -3875,8 +3875,8 @@
       <c r="U48" s="63"/>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="50"/>
       <c r="F49" s="64"/>
       <c r="G49" s="62"/>
       <c r="H49" s="62"/>
@@ -3895,8 +3895,8 @@
       <c r="U49" s="63"/>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D50" s="55"/>
-      <c r="E50" s="56"/>
+      <c r="D50" s="49"/>
+      <c r="E50" s="50"/>
       <c r="F50" s="64"/>
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
@@ -3915,8 +3915,8 @@
       <c r="U50" s="63"/>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D51" s="57"/>
-      <c r="E51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="65"/>
       <c r="G51" s="66"/>
       <c r="H51" s="66"/>
@@ -3936,11 +3936,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="D10:E12"/>
-    <mergeCell ref="D18:E20"/>
-    <mergeCell ref="D22:E24"/>
-    <mergeCell ref="D26:E28"/>
     <mergeCell ref="F10:U12"/>
     <mergeCell ref="F26:U28"/>
     <mergeCell ref="F30:U32"/>
@@ -3957,6 +3952,11 @@
     <mergeCell ref="F48:U51"/>
     <mergeCell ref="F22:U24"/>
     <mergeCell ref="F18:U20"/>
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="D22:E24"/>
+    <mergeCell ref="D26:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F18" r:id="rId1" xr:uid="{36619635-C56A-4186-9BF4-E751CB45AE65}"/>

--- a/src/assets/MyHealthRecords_App.xlsx
+++ b/src/assets/MyHealthRecords_App.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GK-96\Desktop\MyHealthRecords.gr_App\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B934E339-FC9D-443D-89DD-A9E6A98D1211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32AF972C-32C7-4064-AB0A-0F5B84C253E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{CCBED421-2667-4BAF-8A4C-3918BA6E9EF5}"/>
+    <workbookView xWindow="-30686" yWindow="-3214" windowWidth="24695" windowHeight="13260" activeTab="2" xr2:uid="{CCBED421-2667-4BAF-8A4C-3918BA6E9EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -787,6 +787,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -799,35 +817,17 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1711,7 +1711,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,8 +1928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{493A4E62-736F-444D-A608-D31FD3AB804F}">
   <dimension ref="G2:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F10" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2921,10 +2921,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="E3" s="48"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="19"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -2943,8 +2943,8 @@
       <c r="U3" s="17"/>
     </row>
     <row r="4" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D4" s="49"/>
-      <c r="E4" s="50"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="21"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
@@ -2963,8 +2963,8 @@
       <c r="U4" s="18"/>
     </row>
     <row r="5" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D5" s="49"/>
-      <c r="E5" s="50"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="21"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
@@ -2983,8 +2983,8 @@
       <c r="U5" s="18"/>
     </row>
     <row r="6" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="21"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -3003,8 +3003,8 @@
       <c r="U6" s="18"/>
     </row>
     <row r="7" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D7" s="49"/>
-      <c r="E7" s="50"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="56"/>
       <c r="F7" s="21"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
@@ -3063,68 +3063,68 @@
       <c r="U9" s="18"/>
     </row>
     <row r="10" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="52"/>
-      <c r="F10" s="53" t="s">
+      <c r="E10" s="60"/>
+      <c r="F10" s="47" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="54"/>
-      <c r="U10" s="55"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="48"/>
+      <c r="Q10" s="48"/>
+      <c r="R10" s="48"/>
+      <c r="S10" s="48"/>
+      <c r="T10" s="48"/>
+      <c r="U10" s="49"/>
     </row>
     <row r="11" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D11" s="51"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="54"/>
-      <c r="T11" s="54"/>
-      <c r="U11" s="55"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="49"/>
     </row>
     <row r="12" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="54"/>
-      <c r="U12" s="55"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+      <c r="N12" s="48"/>
+      <c r="O12" s="48"/>
+      <c r="P12" s="48"/>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="S12" s="48"/>
+      <c r="T12" s="48"/>
+      <c r="U12" s="49"/>
     </row>
     <row r="13" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D13" s="20"/>
@@ -3147,68 +3147,68 @@
       <c r="U13" s="18"/>
     </row>
     <row r="14" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="53" t="s">
+      <c r="E14" s="60"/>
+      <c r="F14" s="47" t="s">
         <v>115</v>
       </c>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="57"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+      <c r="T14" s="50"/>
+      <c r="U14" s="51"/>
     </row>
     <row r="15" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="56"/>
-      <c r="T15" s="56"/>
-      <c r="U15" s="57"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="50"/>
+      <c r="P15" s="50"/>
+      <c r="Q15" s="50"/>
+      <c r="R15" s="50"/>
+      <c r="S15" s="50"/>
+      <c r="T15" s="50"/>
+      <c r="U15" s="51"/>
     </row>
     <row r="16" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="58"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="57"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="50"/>
+      <c r="P16" s="50"/>
+      <c r="Q16" s="50"/>
+      <c r="R16" s="50"/>
+      <c r="S16" s="50"/>
+      <c r="T16" s="50"/>
+      <c r="U16" s="51"/>
     </row>
     <row r="17" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D17" s="20"/>
@@ -3231,68 +3231,68 @@
       <c r="U17" s="18"/>
     </row>
     <row r="18" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="51" t="s">
+      <c r="D18" s="59" t="s">
         <v>95</v>
       </c>
-      <c r="E18" s="52"/>
-      <c r="F18" s="53" t="s">
+      <c r="E18" s="60"/>
+      <c r="F18" s="47" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
-      <c r="S18" s="54"/>
-      <c r="T18" s="54"/>
-      <c r="U18" s="55"/>
+      <c r="G18" s="48"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="48"/>
+      <c r="O18" s="48"/>
+      <c r="P18" s="48"/>
+      <c r="Q18" s="48"/>
+      <c r="R18" s="48"/>
+      <c r="S18" s="48"/>
+      <c r="T18" s="48"/>
+      <c r="U18" s="49"/>
     </row>
     <row r="19" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D19" s="51"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="54"/>
-      <c r="U19" s="55"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="49"/>
     </row>
     <row r="20" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D20" s="51"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="55"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="49"/>
     </row>
     <row r="21" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D21" s="20"/>
@@ -3315,68 +3315,68 @@
       <c r="U21" s="18"/>
     </row>
     <row r="22" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="51" t="s">
+      <c r="D22" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="E22" s="52"/>
-      <c r="F22" s="53" t="s">
+      <c r="E22" s="60"/>
+      <c r="F22" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
-      <c r="S22" s="54"/>
-      <c r="T22" s="54"/>
-      <c r="U22" s="55"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="49"/>
     </row>
     <row r="23" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D23" s="51"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
-      <c r="Q23" s="54"/>
-      <c r="R23" s="54"/>
-      <c r="S23" s="54"/>
-      <c r="T23" s="54"/>
-      <c r="U23" s="55"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="49"/>
     </row>
     <row r="24" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D24" s="51"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
-      <c r="Q24" s="54"/>
-      <c r="R24" s="54"/>
-      <c r="S24" s="54"/>
-      <c r="T24" s="54"/>
-      <c r="U24" s="55"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
+      <c r="M24" s="48"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="48"/>
+      <c r="Q24" s="48"/>
+      <c r="R24" s="48"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="49"/>
     </row>
     <row r="25" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D25" s="20"/>
@@ -3399,68 +3399,68 @@
       <c r="U25" s="18"/>
     </row>
     <row r="26" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="51" t="s">
+      <c r="D26" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="52"/>
-      <c r="F26" s="53" t="s">
+      <c r="E26" s="60"/>
+      <c r="F26" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="G26" s="56"/>
-      <c r="H26" s="56"/>
-      <c r="I26" s="56"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="57"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="51"/>
     </row>
     <row r="27" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D27" s="51"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="56"/>
-      <c r="I27" s="56"/>
-      <c r="J27" s="56"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="56"/>
-      <c r="N27" s="56"/>
-      <c r="O27" s="56"/>
-      <c r="P27" s="56"/>
-      <c r="Q27" s="56"/>
-      <c r="R27" s="56"/>
-      <c r="S27" s="56"/>
-      <c r="T27" s="56"/>
-      <c r="U27" s="57"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="50"/>
+      <c r="N27" s="50"/>
+      <c r="O27" s="50"/>
+      <c r="P27" s="50"/>
+      <c r="Q27" s="50"/>
+      <c r="R27" s="50"/>
+      <c r="S27" s="50"/>
+      <c r="T27" s="50"/>
+      <c r="U27" s="51"/>
     </row>
     <row r="28" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="56"/>
-      <c r="L28" s="56"/>
-      <c r="M28" s="56"/>
-      <c r="N28" s="56"/>
-      <c r="O28" s="56"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="56"/>
-      <c r="R28" s="56"/>
-      <c r="S28" s="56"/>
-      <c r="T28" s="56"/>
-      <c r="U28" s="57"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="50"/>
+      <c r="J28" s="50"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="50"/>
+      <c r="M28" s="50"/>
+      <c r="N28" s="50"/>
+      <c r="O28" s="50"/>
+      <c r="P28" s="50"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="50"/>
+      <c r="T28" s="50"/>
+      <c r="U28" s="51"/>
     </row>
     <row r="29" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D29" s="20"/>
@@ -3483,68 +3483,68 @@
       <c r="U29" s="18"/>
     </row>
     <row r="30" spans="4:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="51" t="s">
+      <c r="D30" s="59" t="s">
         <v>99</v>
       </c>
-      <c r="E30" s="52"/>
-      <c r="F30" s="53" t="s">
+      <c r="E30" s="60"/>
+      <c r="F30" s="47" t="s">
         <v>108</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
-      <c r="I30" s="56"/>
-      <c r="J30" s="56"/>
-      <c r="K30" s="56"/>
-      <c r="L30" s="56"/>
-      <c r="M30" s="56"/>
-      <c r="N30" s="56"/>
-      <c r="O30" s="56"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="56"/>
-      <c r="R30" s="56"/>
-      <c r="S30" s="56"/>
-      <c r="T30" s="56"/>
-      <c r="U30" s="57"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="51"/>
     </row>
     <row r="31" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D31" s="51"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
-      <c r="I31" s="56"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="56"/>
-      <c r="M31" s="56"/>
-      <c r="N31" s="56"/>
-      <c r="O31" s="56"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="56"/>
-      <c r="R31" s="56"/>
-      <c r="S31" s="56"/>
-      <c r="T31" s="56"/>
-      <c r="U31" s="57"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="50"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="50"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="50"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="50"/>
+      <c r="R31" s="50"/>
+      <c r="S31" s="50"/>
+      <c r="T31" s="50"/>
+      <c r="U31" s="51"/>
     </row>
     <row r="32" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="58"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="56"/>
-      <c r="M32" s="56"/>
-      <c r="N32" s="56"/>
-      <c r="O32" s="56"/>
-      <c r="P32" s="56"/>
-      <c r="Q32" s="56"/>
-      <c r="R32" s="56"/>
-      <c r="S32" s="56"/>
-      <c r="T32" s="56"/>
-      <c r="U32" s="57"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+      <c r="R32" s="50"/>
+      <c r="S32" s="50"/>
+      <c r="T32" s="50"/>
+      <c r="U32" s="51"/>
     </row>
     <row r="33" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D33" s="20"/>
@@ -3567,68 +3567,68 @@
       <c r="U33" s="18"/>
     </row>
     <row r="34" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D34" s="51" t="s">
+      <c r="D34" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53" t="s">
+      <c r="E34" s="60"/>
+      <c r="F34" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="57"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+      <c r="R34" s="50"/>
+      <c r="S34" s="50"/>
+      <c r="T34" s="50"/>
+      <c r="U34" s="51"/>
     </row>
     <row r="35" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="56"/>
-      <c r="H35" s="56"/>
-      <c r="I35" s="56"/>
-      <c r="J35" s="56"/>
-      <c r="K35" s="56"/>
-      <c r="L35" s="56"/>
-      <c r="M35" s="56"/>
-      <c r="N35" s="56"/>
-      <c r="O35" s="56"/>
-      <c r="P35" s="56"/>
-      <c r="Q35" s="56"/>
-      <c r="R35" s="56"/>
-      <c r="S35" s="56"/>
-      <c r="T35" s="56"/>
-      <c r="U35" s="57"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+      <c r="R35" s="50"/>
+      <c r="S35" s="50"/>
+      <c r="T35" s="50"/>
+      <c r="U35" s="51"/>
     </row>
     <row r="36" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="56"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="56"/>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56"/>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56"/>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56"/>
-      <c r="T36" s="56"/>
-      <c r="U36" s="57"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="50"/>
+      <c r="K36" s="50"/>
+      <c r="L36" s="50"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="50"/>
+      <c r="P36" s="50"/>
+      <c r="Q36" s="50"/>
+      <c r="R36" s="50"/>
+      <c r="S36" s="50"/>
+      <c r="T36" s="50"/>
+      <c r="U36" s="51"/>
     </row>
     <row r="37" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D37" s="23"/>
@@ -3651,10 +3651,10 @@
       <c r="U37" s="18"/>
     </row>
     <row r="38" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D38" s="51" t="s">
+      <c r="D38" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="E38" s="52"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="61" t="s">
         <v>110</v>
       </c>
@@ -3675,8 +3675,8 @@
       <c r="U38" s="63"/>
     </row>
     <row r="39" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="64"/>
       <c r="G39" s="62"/>
       <c r="H39" s="62"/>
@@ -3695,8 +3695,8 @@
       <c r="U39" s="63"/>
     </row>
     <row r="40" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D40" s="51"/>
-      <c r="E40" s="52"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="64"/>
       <c r="G40" s="62"/>
       <c r="H40" s="62"/>
@@ -3735,68 +3735,68 @@
       <c r="U41" s="26"/>
     </row>
     <row r="42" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D42" s="51" t="s">
+      <c r="D42" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="E42" s="52"/>
-      <c r="F42" s="53" t="s">
+      <c r="E42" s="60"/>
+      <c r="F42" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="56"/>
-      <c r="K42" s="56"/>
-      <c r="L42" s="56"/>
-      <c r="M42" s="56"/>
-      <c r="N42" s="56"/>
-      <c r="O42" s="56"/>
-      <c r="P42" s="56"/>
-      <c r="Q42" s="56"/>
-      <c r="R42" s="56"/>
-      <c r="S42" s="56"/>
-      <c r="T42" s="56"/>
-      <c r="U42" s="57"/>
+      <c r="G42" s="50"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="50"/>
+      <c r="J42" s="50"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="50"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="50"/>
+      <c r="O42" s="50"/>
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50"/>
+      <c r="R42" s="50"/>
+      <c r="S42" s="50"/>
+      <c r="T42" s="50"/>
+      <c r="U42" s="51"/>
     </row>
     <row r="43" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D43" s="51"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
-      <c r="Q43" s="56"/>
-      <c r="R43" s="56"/>
-      <c r="S43" s="56"/>
-      <c r="T43" s="56"/>
-      <c r="U43" s="57"/>
+      <c r="D43" s="59"/>
+      <c r="E43" s="60"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="50"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="50"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="50"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="50"/>
+      <c r="P43" s="50"/>
+      <c r="Q43" s="50"/>
+      <c r="R43" s="50"/>
+      <c r="S43" s="50"/>
+      <c r="T43" s="50"/>
+      <c r="U43" s="51"/>
     </row>
     <row r="44" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D44" s="51"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="58"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
-      <c r="Q44" s="56"/>
-      <c r="R44" s="56"/>
-      <c r="S44" s="56"/>
-      <c r="T44" s="56"/>
-      <c r="U44" s="57"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="50"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="50"/>
+      <c r="J44" s="50"/>
+      <c r="K44" s="50"/>
+      <c r="L44" s="50"/>
+      <c r="M44" s="50"/>
+      <c r="N44" s="50"/>
+      <c r="O44" s="50"/>
+      <c r="P44" s="50"/>
+      <c r="Q44" s="50"/>
+      <c r="R44" s="50"/>
+      <c r="S44" s="50"/>
+      <c r="T44" s="50"/>
+      <c r="U44" s="51"/>
     </row>
     <row r="45" spans="4:21" x14ac:dyDescent="0.25">
       <c r="D45" s="23"/>
@@ -3851,10 +3851,10 @@
       <c r="U47" s="18"/>
     </row>
     <row r="48" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="53" t="s">
         <v>94</v>
       </c>
-      <c r="E48" s="48"/>
+      <c r="E48" s="54"/>
       <c r="F48" s="61" t="s">
         <v>116</v>
       </c>
@@ -3875,8 +3875,8 @@
       <c r="U48" s="63"/>
     </row>
     <row r="49" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D49" s="49"/>
-      <c r="E49" s="50"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
       <c r="F49" s="64"/>
       <c r="G49" s="62"/>
       <c r="H49" s="62"/>
@@ -3895,8 +3895,8 @@
       <c r="U49" s="63"/>
     </row>
     <row r="50" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D50" s="49"/>
-      <c r="E50" s="50"/>
+      <c r="D50" s="55"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="64"/>
       <c r="G50" s="62"/>
       <c r="H50" s="62"/>
@@ -3915,8 +3915,8 @@
       <c r="U50" s="63"/>
     </row>
     <row r="51" spans="4:21" x14ac:dyDescent="0.25">
-      <c r="D51" s="59"/>
-      <c r="E51" s="60"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
       <c r="F51" s="65"/>
       <c r="G51" s="66"/>
       <c r="H51" s="66"/>
@@ -3936,6 +3936,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D3:E7"/>
+    <mergeCell ref="D10:E12"/>
+    <mergeCell ref="D18:E20"/>
+    <mergeCell ref="D22:E24"/>
+    <mergeCell ref="D26:E28"/>
     <mergeCell ref="F10:U12"/>
     <mergeCell ref="F26:U28"/>
     <mergeCell ref="F30:U32"/>
@@ -3952,11 +3957,6 @@
     <mergeCell ref="F48:U51"/>
     <mergeCell ref="F22:U24"/>
     <mergeCell ref="F18:U20"/>
-    <mergeCell ref="D3:E7"/>
-    <mergeCell ref="D10:E12"/>
-    <mergeCell ref="D18:E20"/>
-    <mergeCell ref="D22:E24"/>
-    <mergeCell ref="D26:E28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F18" r:id="rId1" xr:uid="{36619635-C56A-4186-9BF4-E751CB45AE65}"/>
